--- a/data/nz-gas-working.xlsx
+++ b/data/nz-gas-working.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/Documents/GitHub/phd/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\phd\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76E3FD47-C45D-564A-B094-B8DA80298BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C5BE19-5869-44A6-82F6-9C2E8920DC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="2000" windowWidth="27640" windowHeight="15760" xr2:uid="{17CC2F23-C17B-D54F-8C34-01615971F1F2}"/>
+    <workbookView xWindow="3345" yWindow="1605" windowWidth="20580" windowHeight="11610" xr2:uid="{17CC2F23-C17B-D54F-8C34-01615971F1F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,11 +65,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="mmm\ yy"/>
-    <numFmt numFmtId="168" formatCode="mmm\-yyyy"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="170" formatCode="mmm\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="168" formatCode="mmm\ yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -117,7 +117,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -125,14 +125,14 @@
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -149,4071 +149,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Price-NZ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$301</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\ yy</c:formatCode>
-                <c:ptCount val="300"/>
-                <c:pt idx="0">
-                  <c:v>36220</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36312</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36404</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36495</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36586</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36678</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36770</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36861</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36951</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37043</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37135</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37226</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37316</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>37408</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>37500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37591</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>37681</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>37773</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37865</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37956</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>38047</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>38139</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>38231</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>38322</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>38412</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>38504</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>38596</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>38687</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>38777</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>38869</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>38961</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>39052</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>39142</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>39234</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>39326</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>39417</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>39508</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>39600</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39692</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39783</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>39873</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>39965</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>40057</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>40148</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>40238</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>40330</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>40422</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>40513</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>40603</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>40695</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>40787</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>40878</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>40969</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>41061</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>41153</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>41244</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>41334</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>41426</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>41518</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>41609</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>41699</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>41791</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>41883</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>41974</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>42064</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>42156</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>42248</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>42339</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>42430</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>42522</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>42614</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>42705</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>42795</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>42887</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>42979</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>43070</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>43160</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>43252</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>43344</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>43435</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>43525</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>43617</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>43709</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>43800</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>43891</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>43983</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44075</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44166</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44348</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44440</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$301</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="300"/>
-                <c:pt idx="0">
-                  <c:v>2.8857044021856701</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9368037765066402</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6985493376196401</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8276170928194699</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.8712435686876199</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7193609686724698</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.58079605959044</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.7754585920094401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.7021105354058701</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.7012306886619499</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.6694529482230802</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0126890769955601</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.0246255612297399</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.8563850720108501</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.0345856607238502</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.0246994867639101</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.1421556398776298</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.12506741022918</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.1919910937183702</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.6385251013408202</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.9212747927311402</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.43973637537681</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.3699515354137599</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.71763174669216</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.6481025620682801</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.4524263703167999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.3270390828203098</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.3450275395862796</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.3682541890193898</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.4355997512206597</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.5758472984573002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.9818731358545403</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.1580254912439596</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.2764326177141099</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.4208757008128501</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.1227355169208701</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.9620371893212702</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.0840085547616196</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.5676371063731898</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.7709588928724802</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.7394823961530097</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7.0672935753401998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6.9317288124376102</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.8803808655771004</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7.1983924802743502</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6.4021822640511097</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7.4238496190529597</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.6097249604170401</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7.3002029099636898</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7.2017651869250798</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7.3214247532802403</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6.2707512792917797</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>6.5842521569967696</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6.7874037699829497</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6.7273789680334799</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6.2166901870093296</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6.8860279667826303</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>6.9163319003898502</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>7.0515429410733104</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>7.1665711787133404</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6.8512562449545298</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6.4575227657296299</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>7.14046628731416</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6.8900095654508702</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6.1766678000316499</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6.3929420567992299</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6.4110636032830497</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>5.6992092743227003</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>5.87623132018894</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>5.8537755705773202</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>5.7887196193706902</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5.3534452333021401</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>6.5572987048942002</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>5.5290566373270398</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>6.2145297177649201</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>6.4416674513080796</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>6.1255940397661197</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>6.2457682948597997</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>6.8547829553964297</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7.1280705606868899</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>6.5875300496418401</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>6.9160130471757499</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>6.6178880694994202</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>6.94456553904429</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>6.7483614436319703</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>6.2787927056392698</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>6.5941629748271904</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>6.8251134820852002</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>7.4142860848992402</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>9.0998143946173506</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9.1542606299056803</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D2EC-9B43-80AF-B03EA7114A53}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Price-HH</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$301</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\ yy</c:formatCode>
-                <c:ptCount val="300"/>
-                <c:pt idx="0">
-                  <c:v>36220</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36312</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36404</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36495</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36586</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36678</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36770</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36861</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36951</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37043</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37135</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37226</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37316</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>37408</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>37500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37591</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>37681</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>37773</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37865</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37956</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>38047</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>38139</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>38231</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>38322</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>38412</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>38504</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>38596</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>38687</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>38777</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>38869</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>38961</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>39052</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>39142</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>39234</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>39326</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>39417</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>39508</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>39600</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39692</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39783</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>39873</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>39965</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>40057</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>40148</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>40238</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>40330</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>40422</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>40513</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>40603</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>40695</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>40787</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>40878</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>40969</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>41061</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>41153</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>41244</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>41334</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>41426</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>41518</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>41609</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>41699</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>41791</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>41883</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>41974</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>42064</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>42156</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>42248</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>42339</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>42430</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>42522</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>42614</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>42705</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>42795</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>42887</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>42979</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>43070</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>43160</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>43252</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>43344</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>43435</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>43525</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>43617</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>43709</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>43800</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>43891</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>43983</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44075</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44166</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44348</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44440</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$2:$F$301</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="300"/>
-                <c:pt idx="0">
-                  <c:v>1.9033333333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2899999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6933333333333334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.83</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.956666666666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.836666666666666</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.53</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.3433333333333337</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.6733333333333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.54</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.3199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.9266666666666663</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.59</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.7366666666666672</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.5533333333333337</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7466666666666661</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.5799999999999992</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.4899999999999993</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.1766666666666667</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.6366666666666667</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.753333333333333</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.0933333333333328</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>11.566666666666668</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10.68</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.1966666666666663</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.2100000000000009</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.9633333333333338</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.8966666666666674</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7.57</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.0699999999999994</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.3466666666666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.3766666666666669</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>11.683333333333332</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.5566666666666675</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.913333333333334</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.9933333333333336</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.67</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.3800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.9466666666666663</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.5466666666666669</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.5233333333333334</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.8800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.1499999999999995</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.1000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4.4233333333333329</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.8433333333333333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.0266666666666668</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.21</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.6133333333333337</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.0033333333333334</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.4033333333333338</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3.77</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.83</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3.5766666666666667</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4.1966666666666663</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5.1866666666666665</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>4.4066666666666663</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3.8699999999999997</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3.53</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2.77</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2.8233333333333328</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.59</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.88</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2.4433333333333334</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.1466666666666665</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.9433333333333334</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>3.0366666666666666</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2.92</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3.2333333333333329</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2.72</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2.8666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>3.08</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>3.7466666666666661</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.7633333333333336</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.4700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.37</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.2966666666666669</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.8133333333333335</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.7166666666666668</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.2033333333333331</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.6366666666666663</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>3.543333333333333</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>3.3366666666666664</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4.9133333333333331</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D2EC-9B43-80AF-B03EA7114A53}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1541580415"/>
-        <c:axId val="1541600879"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1541580415"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="mmm\ yy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1541600879"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="1541600879"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1541580415"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NZBTU-USD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$301</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\ yy</c:formatCode>
-                <c:ptCount val="300"/>
-                <c:pt idx="0">
-                  <c:v>36220</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36312</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36404</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36495</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36586</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36678</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36770</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36861</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36951</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37043</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37135</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37226</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37316</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>37408</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>37500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37591</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>37681</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>37773</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37865</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37956</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>38047</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>38139</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>38231</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>38322</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>38412</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>38504</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>38596</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>38687</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>38777</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>38869</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>38961</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>39052</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>39142</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>39234</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>39326</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>39417</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>39508</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>39600</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39692</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39783</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>39873</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>39965</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>40057</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>40148</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>40238</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>40330</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>40422</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>40513</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>40603</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>40695</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>40787</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>40878</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>40969</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>41061</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>41153</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>41244</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>41334</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>41426</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>41518</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>41609</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>41699</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>41791</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>41883</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>41974</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>42064</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>42156</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>42248</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>42339</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>42430</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>42522</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>42614</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>42705</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>42795</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>42887</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>42979</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>43070</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>43160</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>43252</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>43344</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>43435</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>43525</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>43617</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>43709</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>43800</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>43891</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>43983</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44075</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44166</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44348</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44440</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$301</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="300"/>
-                <c:pt idx="0">
-                  <c:v>1.6422463137800469</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6651298400644468</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4845836213351102</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5261539613968746</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.493557095445559</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3408158349471699</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1494202543117329</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2412912114424464</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1988892001090903</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1832990927937141</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1871220204155997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.331391025352096</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3757044831161276</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4379110609658952</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.5093682130238781</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6458223143631185</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.8326150088829056</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.915737275667672</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.9837048479605415</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.4910282980449039</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.7510764855003731</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.2881566930441495</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.3649918267176124</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.7684969158974351</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.7756079438053241</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.5582513836246488</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.4481392370586641</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.1689374026486496</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.9648106708684714</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.9127113360114931</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.1348353289938764</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.6022183248215787</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.8580192711842844</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.2201055028643477</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.2059933945200081</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.1487036347016613</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.1698583921723751</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.0996392636498928</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.913567150062657</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.39870385852972</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.8321023562744769</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.6726713739991208</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5.1586018282180754</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.2624267122137924</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5.348952264527508</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.735242383717635</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5.721436473725114</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6.1242816638946431</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5.876719758488858</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6.2212065740619655</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6.2841489024136603</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.1675321941575909</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5.7289886371725904</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5.6202629762967007</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5.7894074997951526</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5.4406542358736392</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6.0881916126732811</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.8518017360392003</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>6.0500231508875633</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6.244236430195687</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6.1258780613046673</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>5.8880633034318306</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6.1448997109040695</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>5.630350735931934</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4.8875478168226438</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>4.729532206524472</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4.408570016980323</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3.9733804484377795</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4.1864866179299201</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>4.3150079788225293</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>4.4168885788225802</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>4.0152943710501043</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>4.8898666976018568</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>4.1827884089512333</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>4.7249599054675278</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>4.7791721498175326</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>4.7021504084635222</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>4.542894585541644</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>4.7722744339691268</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>5.1064287435502491</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>4.7254498894469403</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>4.8265774461475663</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4.4483867063407638</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>4.7847135473879732</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>4.375890067540122</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>4.2213381445416109</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>4.6149501036742864</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>5.0727777679222177</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>5.6095054417475962</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>6.8220182420481486</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>6.7826723727691665</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E2D5-4847-8F6F-DBE30C05C86E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Price-HH</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$301</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\ yy</c:formatCode>
-                <c:ptCount val="300"/>
-                <c:pt idx="0">
-                  <c:v>36220</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36312</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36404</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36495</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36586</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36678</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36770</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36861</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36951</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37043</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37135</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37226</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37316</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>37408</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>37500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37591</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>37681</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>37773</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37865</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37956</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>38047</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>38139</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>38231</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>38322</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>38412</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>38504</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>38596</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>38687</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>38777</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>38869</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>38961</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>39052</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>39142</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>39234</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>39326</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>39417</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>39508</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>39600</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39692</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39783</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>39873</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>39965</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>40057</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>40148</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>40238</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>40330</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>40422</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>40513</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>40603</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>40695</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>40787</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>40878</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>40969</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>41061</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>41153</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>41244</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>41334</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>41426</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>41518</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>41609</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>41699</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>41791</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>41883</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>41974</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>42064</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>42156</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>42248</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>42339</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>42430</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>42522</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>42614</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>42705</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>42795</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>42887</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>42979</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>43070</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>43160</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>43252</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>43344</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>43435</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>43525</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>43617</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>43709</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>43800</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>43891</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>43983</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44075</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44166</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44348</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44440</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$2:$F$301</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="300"/>
-                <c:pt idx="0">
-                  <c:v>1.9033333333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2899999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6933333333333334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.83</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.956666666666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.836666666666666</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.53</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.3433333333333337</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.6733333333333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.54</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.3199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.9266666666666663</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.59</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.7366666666666672</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.5533333333333337</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7466666666666661</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.5799999999999992</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.4899999999999993</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.1766666666666667</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.6366666666666667</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.753333333333333</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.0933333333333328</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>11.566666666666668</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10.68</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.1966666666666663</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.2100000000000009</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.9633333333333338</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.8966666666666674</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7.57</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.0699999999999994</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.3466666666666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.3766666666666669</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>11.683333333333332</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.5566666666666675</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.913333333333334</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.9933333333333336</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.67</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.3800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.9466666666666663</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.5466666666666669</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.5233333333333334</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.8800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.1499999999999995</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.1000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4.4233333333333329</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.8433333333333333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.0266666666666668</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.21</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.6133333333333337</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.0033333333333334</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.4033333333333338</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3.77</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.83</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3.5766666666666667</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4.1966666666666663</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5.1866666666666665</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>4.4066666666666663</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3.8699999999999997</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3.53</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2.77</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2.8233333333333328</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.59</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.88</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2.4433333333333334</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.1466666666666665</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.9433333333333334</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>3.0366666666666666</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2.92</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3.2333333333333329</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2.72</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2.8666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>3.08</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>3.7466666666666661</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.7633333333333336</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.4700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.37</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.2966666666666669</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.8133333333333335</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.7166666666666668</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.2033333333333331</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.6366666666666663</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>3.543333333333333</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>3.3366666666666664</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4.9133333333333331</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E2D5-4847-8F6F-DBE30C05C86E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1377721375"/>
-        <c:axId val="1085441695"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1377721375"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="mmm\ yy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1085441695"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="1085441695"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1377721375"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{651284C9-5BCA-DD47-AEB8-77747C8888BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>685100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>69908</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>186421</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7183EAE0-246D-6143-8FF9-AE2E691463C0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4515,16 +450,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BC4360-9482-9A4D-A184-9ACF7B2105CC}">
   <dimension ref="A1:Q301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4553,7 +488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>36220</v>
       </c>
@@ -4589,7 +524,7 @@
         <v>0.53910000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>36312</v>
       </c>
@@ -4629,7 +564,7 @@
         <v>0.53939999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>36404</v>
       </c>
@@ -4669,7 +604,7 @@
         <v>0.5421999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>36495</v>
       </c>
@@ -4709,7 +644,7 @@
         <v>0.54239999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>36586</v>
       </c>
@@ -4749,7 +684,7 @@
         <v>0.53739999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>36678</v>
       </c>
@@ -4789,7 +724,7 @@
         <v>0.52883333333333338</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>36770</v>
       </c>
@@ -4829,7 +764,7 @@
         <v>0.52539999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>36861</v>
       </c>
@@ -4869,7 +804,7 @@
         <v>0.52143333333333342</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>36951</v>
       </c>
@@ -4909,7 +844,7 @@
         <v>0.51653333333333329</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>37043</v>
       </c>
@@ -4949,7 +884,7 @@
         <v>0.51190000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>37135</v>
       </c>
@@ -4989,7 +924,7 @@
         <v>0.51156666666666661</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>37226</v>
       </c>
@@ -5029,7 +964,7 @@
         <v>0.50456666666666672</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>37316</v>
       </c>
@@ -5069,7 +1004,7 @@
         <v>0.49866666666666665</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>37408</v>
       </c>
@@ -5109,7 +1044,7 @@
         <v>0.49303333333333327</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>37500</v>
       </c>
@@ -5149,7 +1084,7 @@
         <v>0.48630000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>37591</v>
       </c>
@@ -5189,7 +1124,7 @@
         <v>0.47933333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>37681</v>
       </c>
@@ -5229,7 +1164,7 @@
         <v>0.46733333333333338</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>37773</v>
       </c>
@@ -5269,7 +1204,7 @@
         <v>0.45906666666666668</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>37865</v>
       </c>
@@ -5309,7 +1244,7 @@
         <v>0.44203333333333333</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>37956</v>
       </c>
@@ -5349,7 +1284,7 @@
         <v>0.4221333333333333</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>38047</v>
       </c>
@@ -5389,7 +1324,7 @@
         <v>0.40626666666666672</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>38139</v>
       </c>
@@ -5429,7 +1364,7 @@
         <v>0.4094666666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>38231</v>
       </c>
@@ -5469,7 +1404,7 @@
         <v>0.4239</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>38322</v>
       </c>
@@ -5509,7 +1444,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>38412</v>
       </c>
@@ -5549,7 +1484,7 @@
         <v>0.43316666666666664</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>38504</v>
       </c>
@@ -5593,7 +1528,7 @@
         <v>0.42053333333333337</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>38596</v>
       </c>
@@ -5637,7 +1572,7 @@
         <v>0.41619999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>38687</v>
       </c>
@@ -5681,7 +1616,7 @@
         <v>0.41450000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>38777</v>
       </c>
@@ -5725,7 +1660,7 @@
         <v>0.41520000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>38869</v>
       </c>
@@ -5769,7 +1704,7 @@
         <v>0.41803333333333331</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>38961</v>
       </c>
@@ -5813,7 +1748,7 @@
         <v>0.41969999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>39052</v>
       </c>
@@ -5857,7 +1792,7 @@
         <v>0.42149999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>39142</v>
       </c>
@@ -5901,7 +1836,7 @@
         <v>0.41673333333333334</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>39234</v>
       </c>
@@ -5945,7 +1880,7 @@
         <v>0.41536666666666666</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>39326</v>
       </c>
@@ -5989,7 +1924,7 @@
         <v>0.41886666666666672</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>39417</v>
       </c>
@@ -6033,7 +1968,7 @@
         <v>0.41970000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>39508</v>
       </c>
@@ -6077,7 +2012,7 @@
         <v>0.42506666666666665</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39600</v>
       </c>
@@ -6121,7 +2056,7 @@
         <v>0.43109999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39692</v>
       </c>
@@ -6165,7 +2100,7 @@
         <v>0.44486666666666669</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39783</v>
       </c>
@@ -6209,7 +2144,7 @@
         <v>0.46416666666666667</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39873</v>
       </c>
@@ -6253,7 +2188,7 @@
         <v>0.47713333333333335</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>39965</v>
       </c>
@@ -6297,7 +2232,7 @@
         <v>0.47836666666666666</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40057</v>
       </c>
@@ -6341,7 +2276,7 @@
         <v>0.47176666666666667</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40148</v>
       </c>
@@ -6385,7 +2320,7 @@
         <v>0.47143333333333332</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40238</v>
       </c>
@@ -6429,7 +2364,7 @@
         <v>0.48243333333333333</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40330</v>
       </c>
@@ -6473,7 +2408,7 @@
         <v>0.49563333333333331</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40422</v>
       </c>
@@ -6517,7 +2452,7 @@
         <v>0.51573333333333338</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40513</v>
       </c>
@@ -6561,7 +2496,7 @@
         <v>0.53460000000000008</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40603</v>
       </c>
@@ -6605,7 +2540,7 @@
         <v>0.54946666666666666</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40695</v>
       </c>
@@ -6649,7 +2584,7 @@
         <v>0.55279999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40787</v>
       </c>
@@ -6693,7 +2628,7 @@
         <v>0.56040000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40878</v>
       </c>
@@ -6737,7 +2672,7 @@
         <v>0.56933333333333336</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40969</v>
       </c>
@@ -6781,7 +2716,7 @@
         <v>0.5810333333333334</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>41061</v>
       </c>
@@ -6825,7 +2760,7 @@
         <v>0.58306666666666673</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>41153</v>
       </c>
@@ -6869,7 +2804,7 @@
         <v>0.58403333333333329</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>41244</v>
       </c>
@@ -6913,7 +2848,7 @@
         <v>0.58903333333333341</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>41334</v>
       </c>
@@ -6957,7 +2892,7 @@
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>41426</v>
       </c>
@@ -7001,7 +2936,7 @@
         <v>0.62509999999999988</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>41518</v>
       </c>
@@ -7045,7 +2980,7 @@
         <v>0.64889999999999992</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>41609</v>
       </c>
@@ -7089,7 +3024,7 @@
         <v>0.67020000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>41699</v>
       </c>
@@ -7133,7 +3068,7 @@
         <v>0.67513333333333325</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>41791</v>
       </c>
@@ -7177,7 +3112,7 @@
         <v>0.66496666666666659</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>41883</v>
       </c>
@@ -7221,7 +3156,7 @@
         <v>0.63963333333333339</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>41974</v>
       </c>
@@ -7265,7 +3200,7 @@
         <v>0.62893333333333334</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>42064</v>
       </c>
@@ -7309,7 +3244,7 @@
         <v>0.63049999999999995</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>42156</v>
       </c>
@@ -7353,7 +3288,7 @@
         <v>0.64336666666666664</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>42248</v>
       </c>
@@ -7397,7 +3332,7 @@
         <v>0.6532</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>42339</v>
       </c>
@@ -7441,7 +3376,7 @@
         <v>0.66516666666666679</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>42430</v>
       </c>
@@ -7485,7 +3420,7 @@
         <v>0.68020000000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>42522</v>
       </c>
@@ -7529,7 +3464,7 @@
         <v>0.69866666666666666</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>42614</v>
       </c>
@@ -7573,7 +3508,7 @@
         <v>0.7058333333333332</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>42705</v>
       </c>
@@ -7617,7 +3552,7 @@
         <v>0.71083333333333332</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>42795</v>
       </c>
@@ -7661,7 +3596,7 @@
         <v>0.71629999999999994</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>42887</v>
       </c>
@@ -7705,7 +3640,7 @@
         <v>0.7211333333333334</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>42979</v>
       </c>
@@ -7749,7 +3684,7 @@
         <v>0.72273333333333334</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43070</v>
       </c>
@@ -7793,7 +3728,7 @@
         <v>0.71536666666666671</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43160</v>
       </c>
@@ -7837,7 +3772,7 @@
         <v>0.70233333333333337</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43252</v>
       </c>
@@ -7881,7 +3816,7 @@
         <v>0.69430000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43344</v>
       </c>
@@ -7925,7 +3860,7 @@
         <v>0.69130000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43435</v>
       </c>
@@ -7969,7 +3904,7 @@
         <v>0.69743333333333324</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43525</v>
       </c>
@@ -8013,7 +3948,7 @@
         <v>0.69573333333333343</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43617</v>
       </c>
@@ -8057,7 +3992,7 @@
         <v>0.6946</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43709</v>
       </c>
@@ -8101,7 +4036,7 @@
         <v>0.69126666666666681</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43800</v>
       </c>
@@ -8145,7 +4080,7 @@
         <v>0.68566666666666676</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43891</v>
       </c>
@@ -8189,7 +4124,7 @@
         <v>0.66576666666666673</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43983</v>
       </c>
@@ -8233,7 +4168,7 @@
         <v>0.64329999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44075</v>
       </c>
@@ -8277,7 +4212,7 @@
         <v>0.62939999999999996</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44166</v>
       </c>
@@ -8321,7 +4256,7 @@
         <v>0.62359999999999993</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44256</v>
       </c>
@@ -8365,7 +4300,7 @@
         <v>0.62239999999999995</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44348</v>
       </c>
@@ -8409,7 +4344,7 @@
         <v>0.62290000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44440</v>
       </c>
@@ -8453,7 +4388,7 @@
         <v>0.63479999999999992</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J93" s="3">
         <v>38214</v>
       </c>
@@ -8475,7 +4410,7 @@
         <v>0.64933333333333332</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J94" s="3">
         <v>38245</v>
       </c>
@@ -8497,7 +4432,7 @@
         <v>0.66133333333333333</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J95" s="3">
         <v>38275</v>
       </c>
@@ -8519,7 +4454,7 @@
         <v>0.67369999999999985</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J96" s="3">
         <v>38306</v>
       </c>
@@ -8541,7 +4476,7 @@
         <v>0.68533333333333335</v>
       </c>
     </row>
-    <row r="97" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J97" s="3">
         <v>38336</v>
       </c>
@@ -8563,7 +4498,7 @@
         <v>0.69366666666666665</v>
       </c>
     </row>
-    <row r="98" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J98" s="3">
         <v>38367</v>
       </c>
@@ -8585,7 +4520,7 @@
         <v>0.69580000000000009</v>
       </c>
     </row>
-    <row r="99" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J99" s="3">
         <v>38398</v>
       </c>
@@ -8607,7 +4542,7 @@
         <v>0.70893333333333342</v>
       </c>
     </row>
-    <row r="100" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J100" s="3">
         <v>38426</v>
       </c>
@@ -8629,7 +4564,7 @@
         <v>0.7218</v>
       </c>
     </row>
-    <row r="101" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J101" s="3">
         <v>38457</v>
       </c>
@@ -8651,7 +4586,7 @@
         <v>0.74103333333333332</v>
       </c>
     </row>
-    <row r="102" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J102" s="3">
         <v>38487</v>
       </c>
@@ -8673,7 +4608,7 @@
         <v>0.75806666666666667</v>
       </c>
     </row>
-    <row r="103" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J103" s="3">
         <v>38518</v>
       </c>
@@ -8695,7 +4630,7 @@
         <v>0.75673333333333337</v>
       </c>
     </row>
-    <row r="104" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J104" s="3">
         <v>38548</v>
       </c>
@@ -8717,7 +4652,7 @@
         <v>0.74379999999999991</v>
       </c>
     </row>
-    <row r="105" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J105" s="3">
         <v>38579</v>
       </c>
@@ -8739,7 +4674,7 @@
         <v>0.73539999999999994</v>
       </c>
     </row>
-    <row r="106" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J106" s="3">
         <v>38610</v>
       </c>
@@ -8761,7 +4696,7 @@
         <v>0.74670000000000003</v>
       </c>
     </row>
-    <row r="107" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J107" s="3">
         <v>38640</v>
       </c>
@@ -8783,7 +4718,7 @@
         <v>0.76386666666666658</v>
       </c>
     </row>
-    <row r="108" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J108" s="3">
         <v>38671</v>
       </c>
@@ -8805,7 +4740,7 @@
         <v>0.76759999999999995</v>
       </c>
     </row>
-    <row r="109" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J109" s="3">
         <v>38701</v>
       </c>
@@ -8827,7 +4762,7 @@
         <v>0.77906666666666669</v>
       </c>
     </row>
-    <row r="110" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J110" s="3">
         <v>38732</v>
       </c>
@@ -8849,7 +4784,7 @@
         <v>0.79043333333333321</v>
       </c>
     </row>
-    <row r="111" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J111" s="3">
         <v>38763</v>
       </c>
@@ -8871,7 +4806,7 @@
         <v>0.79649999999999999</v>
       </c>
     </row>
-    <row r="112" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J112" s="3">
         <v>38791</v>
       </c>
@@ -8893,7 +4828,7 @@
         <v>0.78986666666666672</v>
       </c>
     </row>
-    <row r="113" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J113" s="3">
         <v>38822</v>
       </c>
@@ -8915,7 +4850,7 @@
         <v>0.77586666666666659</v>
       </c>
     </row>
-    <row r="114" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J114" s="3">
         <v>38852</v>
       </c>
@@ -8937,7 +4872,7 @@
         <v>0.76429999999999998</v>
       </c>
     </row>
-    <row r="115" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J115" s="3">
         <v>38883</v>
       </c>
@@ -8959,7 +4894,7 @@
         <v>0.74206666666666665</v>
       </c>
     </row>
-    <row r="116" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J116" s="3">
         <v>38913</v>
       </c>
@@ -8981,7 +4916,7 @@
         <v>0.71343333333333325</v>
       </c>
     </row>
-    <row r="117" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J117" s="3">
         <v>38944</v>
       </c>
@@ -9003,7 +4938,7 @@
         <v>0.66623333333333334</v>
       </c>
     </row>
-    <row r="118" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J118" s="3">
         <v>38975</v>
       </c>
@@ -9025,7 +4960,7 @@
         <v>0.61786666666666668</v>
       </c>
     </row>
-    <row r="119" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J119" s="3">
         <v>39005</v>
       </c>
@@ -9047,7 +4982,7 @@
         <v>0.57856666666666667</v>
       </c>
     </row>
-    <row r="120" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J120" s="3">
         <v>39036</v>
       </c>
@@ -9069,7 +5004,7 @@
         <v>0.55819999999999992</v>
       </c>
     </row>
-    <row r="121" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J121" s="3">
         <v>39066</v>
       </c>
@@ -9091,7 +5026,7 @@
         <v>0.54153333333333331</v>
       </c>
     </row>
-    <row r="122" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J122" s="3">
         <v>39097</v>
       </c>
@@ -9113,7 +5048,7 @@
         <v>0.53283333333333338</v>
       </c>
     </row>
-    <row r="123" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J123" s="3">
         <v>39128</v>
       </c>
@@ -9135,7 +5070,7 @@
         <v>0.53893333333333338</v>
       </c>
     </row>
-    <row r="124" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J124" s="3">
         <v>39156</v>
       </c>
@@ -9157,7 +5092,7 @@
         <v>0.56686666666666674</v>
       </c>
     </row>
-    <row r="125" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J125" s="3">
         <v>39187</v>
       </c>
@@ -9179,7 +5114,7 @@
         <v>0.60239999999999994</v>
       </c>
     </row>
-    <row r="126" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="126" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J126" s="3">
         <v>39217</v>
       </c>
@@ -9201,7 +5136,7 @@
         <v>0.62666666666666659</v>
       </c>
     </row>
-    <row r="127" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J127" s="3">
         <v>39248</v>
       </c>
@@ -9223,7 +5158,7 @@
         <v>0.65216666666666667</v>
       </c>
     </row>
-    <row r="128" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J128" s="3">
         <v>39278</v>
       </c>
@@ -9245,7 +5180,7 @@
         <v>0.6738333333333334</v>
       </c>
     </row>
-    <row r="129" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J129" s="3">
         <v>39309</v>
       </c>
@@ -9267,7 +5202,7 @@
         <v>0.70536666666666681</v>
       </c>
     </row>
-    <row r="130" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J130" s="3">
         <v>39340</v>
       </c>
@@ -9289,7 +5224,7 @@
         <v>0.72386666666666677</v>
       </c>
     </row>
-    <row r="131" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J131" s="3">
         <v>39370</v>
       </c>
@@ -9311,7 +5246,7 @@
         <v>0.72846666666666648</v>
       </c>
     </row>
-    <row r="132" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J132" s="3">
         <v>39401</v>
       </c>
@@ -9333,7 +5268,7 @@
         <v>0.72493333333333332</v>
       </c>
     </row>
-    <row r="133" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J133" s="3">
         <v>39431</v>
       </c>
@@ -9355,7 +5290,7 @@
         <v>0.71376666666666677</v>
       </c>
     </row>
-    <row r="134" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J134" s="3">
         <v>39462</v>
       </c>
@@ -9377,7 +5312,7 @@
         <v>0.70943333333333347</v>
       </c>
     </row>
-    <row r="135" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J135" s="3">
         <v>39493</v>
       </c>
@@ -9399,7 +5334,7 @@
         <v>0.70430000000000004</v>
       </c>
     </row>
-    <row r="136" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J136" s="3">
         <v>39522</v>
       </c>
@@ -9421,7 +5356,7 @@
         <v>0.70489999999999997</v>
       </c>
     </row>
-    <row r="137" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J137" s="3">
         <v>39553</v>
       </c>
@@ -9443,7 +5378,7 @@
         <v>0.70143333333333346</v>
       </c>
     </row>
-    <row r="138" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J138" s="3">
         <v>39583</v>
       </c>
@@ -9465,7 +5400,7 @@
         <v>0.70103333333333329</v>
       </c>
     </row>
-    <row r="139" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J139" s="3">
         <v>39614</v>
       </c>
@@ -9487,7 +5422,7 @@
         <v>0.70643333333333336</v>
       </c>
     </row>
-    <row r="140" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J140" s="3">
         <v>39644</v>
       </c>
@@ -9509,7 +5444,7 @@
         <v>0.7174666666666667</v>
       </c>
     </row>
-    <row r="141" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J141" s="3">
         <v>39675</v>
       </c>
@@ -9531,7 +5466,7 @@
         <v>0.7304666666666666</v>
       </c>
     </row>
-    <row r="142" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J142" s="3">
         <v>39706</v>
       </c>
@@ -9553,7 +5488,7 @@
         <v>0.7495666666666666</v>
       </c>
     </row>
-    <row r="143" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J143" s="3">
         <v>39736</v>
       </c>
@@ -9575,7 +5510,7 @@
         <v>0.75773333333333337</v>
       </c>
     </row>
-    <row r="144" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J144" s="3">
         <v>39767</v>
       </c>
@@ -9597,7 +5532,7 @@
         <v>0.76279999999999992</v>
       </c>
     </row>
-    <row r="145" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J145" s="3">
         <v>39797</v>
       </c>
@@ -9619,7 +5554,7 @@
         <v>0.75933333333333319</v>
       </c>
     </row>
-    <row r="146" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J146" s="3">
         <v>39828</v>
       </c>
@@ -9641,7 +5576,7 @@
         <v>0.75613333333333344</v>
       </c>
     </row>
-    <row r="147" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J147" s="3">
         <v>39859</v>
       </c>
@@ -9663,7 +5598,7 @@
         <v>0.7629999999999999</v>
       </c>
     </row>
-    <row r="148" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J148" s="3">
         <v>39887</v>
       </c>
@@ -9685,7 +5620,7 @@
         <v>0.77416666666666656</v>
       </c>
     </row>
-    <row r="149" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J149" s="3">
         <v>39918</v>
       </c>
@@ -9707,7 +5642,7 @@
         <v>0.79890000000000005</v>
       </c>
     </row>
-    <row r="150" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J150" s="3">
         <v>39948</v>
       </c>
@@ -9729,7 +5664,7 @@
         <v>0.81876666666666653</v>
       </c>
     </row>
-    <row r="151" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J151" s="3">
         <v>39979</v>
       </c>
@@ -9751,7 +5686,7 @@
         <v>0.83296666666666663</v>
       </c>
     </row>
-    <row r="152" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J152" s="3">
         <v>40009</v>
       </c>
@@ -9773,7 +5708,7 @@
         <v>0.83273333333333321</v>
       </c>
     </row>
-    <row r="153" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J153" s="3">
         <v>40040</v>
       </c>
@@ -9795,7 +5730,7 @@
         <v>0.81353333333333333</v>
       </c>
     </row>
-    <row r="154" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J154" s="3">
         <v>40071</v>
       </c>
@@ -9817,7 +5752,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="155" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J155" s="3">
         <v>40101</v>
       </c>
@@ -9839,7 +5774,7 @@
         <v>0.77680000000000005</v>
       </c>
     </row>
-    <row r="156" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J156" s="3">
         <v>40132</v>
       </c>
@@ -9861,7 +5796,7 @@
         <v>0.78106666666666669</v>
       </c>
     </row>
-    <row r="157" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J157" s="3">
         <v>40162</v>
       </c>
@@ -9883,7 +5818,7 @@
         <v>0.80156666666666665</v>
       </c>
     </row>
-    <row r="158" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="158" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J158" s="3">
         <v>40193</v>
       </c>
@@ -9905,7 +5840,7 @@
         <v>0.81859999999999999</v>
       </c>
     </row>
-    <row r="159" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J159" s="3">
         <v>40224</v>
       </c>
@@ -9927,7 +5862,7 @@
         <v>0.82469999999999999</v>
       </c>
     </row>
-    <row r="160" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J160" s="3">
         <v>40252</v>
       </c>
@@ -9949,7 +5884,7 @@
         <v>0.80533333333333335</v>
       </c>
     </row>
-    <row r="161" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="161" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J161" s="3">
         <v>40283</v>
       </c>
@@ -9971,7 +5906,7 @@
         <v>0.79176666666666673</v>
       </c>
     </row>
-    <row r="162" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="162" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J162" s="3">
         <v>40313</v>
       </c>
@@ -9993,7 +5928,7 @@
         <v>0.78483333333333327</v>
       </c>
     </row>
-    <row r="163" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="163" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J163" s="3">
         <v>40344</v>
       </c>
@@ -10015,7 +5950,7 @@
         <v>0.79603333333333337</v>
       </c>
     </row>
-    <row r="164" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="164" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J164" s="3">
         <v>40374</v>
       </c>
@@ -10037,7 +5972,7 @@
         <v>0.80846666666666678</v>
       </c>
     </row>
-    <row r="165" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="165" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J165" s="3">
         <v>40405</v>
       </c>
@@ -10059,7 +5994,7 @@
         <v>0.81566666666666665</v>
       </c>
     </row>
-    <row r="166" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="166" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J166" s="3">
         <v>40436</v>
       </c>
@@ -10081,7 +6016,7 @@
         <v>0.81879999999999997</v>
       </c>
     </row>
-    <row r="167" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="167" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J167" s="3">
         <v>40466</v>
       </c>
@@ -10103,7 +6038,7 @@
         <v>0.8236</v>
       </c>
     </row>
-    <row r="168" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="168" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J168" s="3">
         <v>40497</v>
       </c>
@@ -10125,7 +6060,7 @@
         <v>0.82950000000000002</v>
       </c>
     </row>
-    <row r="169" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="169" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J169" s="3">
         <v>40527</v>
       </c>
@@ -10147,7 +6082,7 @@
         <v>0.83606666666666662</v>
       </c>
     </row>
-    <row r="170" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="170" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J170" s="3">
         <v>40558</v>
       </c>
@@ -10169,7 +6104,7 @@
         <v>0.83473333333333333</v>
       </c>
     </row>
-    <row r="171" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="171" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J171" s="3">
         <v>40589</v>
       </c>
@@ -10191,7 +6126,7 @@
         <v>0.83800000000000008</v>
       </c>
     </row>
-    <row r="172" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="172" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J172" s="3">
         <v>40617</v>
       </c>
@@ -10213,7 +6148,7 @@
         <v>0.83389999999999997</v>
       </c>
     </row>
-    <row r="173" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="173" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J173" s="3">
         <v>40648</v>
       </c>
@@ -10235,7 +6170,7 @@
         <v>0.82156666666666667</v>
       </c>
     </row>
-    <row r="174" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="174" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J174" s="3">
         <v>40678</v>
       </c>
@@ -10257,7 +6192,7 @@
         <v>0.80193333333333339</v>
       </c>
     </row>
-    <row r="175" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="175" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J175" s="3">
         <v>40709</v>
       </c>
@@ -10279,7 +6214,7 @@
         <v>0.79046666666666665</v>
       </c>
     </row>
-    <row r="176" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="176" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J176" s="3">
         <v>40739</v>
       </c>
@@ -10301,7 +6236,7 @@
         <v>0.79769999999999996</v>
       </c>
     </row>
-    <row r="177" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="177" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J177" s="3">
         <v>40770</v>
       </c>
@@ -10323,7 +6258,7 @@
         <v>0.81320000000000003</v>
       </c>
     </row>
-    <row r="178" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="178" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J178" s="3">
         <v>40801</v>
       </c>
@@ -10345,7 +6280,7 @@
         <v>0.82463333333333333</v>
       </c>
     </row>
-    <row r="179" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="179" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J179" s="3">
         <v>40831</v>
       </c>
@@ -10367,7 +6302,7 @@
         <v>0.82806666666666662</v>
       </c>
     </row>
-    <row r="180" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="180" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J180" s="3">
         <v>40862</v>
       </c>
@@ -10389,7 +6324,7 @@
         <v>0.82583333333333331</v>
       </c>
     </row>
-    <row r="181" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="181" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J181" s="3">
         <v>40892</v>
       </c>
@@ -10411,7 +6346,7 @@
         <v>0.82656666666666678</v>
       </c>
     </row>
-    <row r="182" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="182" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J182" s="3">
         <v>40923</v>
       </c>
@@ -10433,7 +6368,7 @@
         <v>0.83619999999999994</v>
       </c>
     </row>
-    <row r="183" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="183" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J183" s="3">
         <v>40954</v>
       </c>
@@ -10455,7 +6390,7 @@
         <v>0.8474666666666667</v>
       </c>
     </row>
-    <row r="184" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="184" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J184" s="3">
         <v>40983</v>
       </c>
@@ -10477,7 +6412,7 @@
         <v>0.85820000000000007</v>
       </c>
     </row>
-    <row r="185" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="185" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J185" s="3">
         <v>41014</v>
       </c>
@@ -10499,7 +6434,7 @@
         <v>0.86166666666666669</v>
       </c>
     </row>
-    <row r="186" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="186" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J186" s="3">
         <v>41044</v>
       </c>
@@ -10521,7 +6456,7 @@
         <v>0.8642333333333333</v>
       </c>
     </row>
-    <row r="187" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="187" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J187" s="3">
         <v>41075</v>
       </c>
@@ -10543,7 +6478,7 @@
         <v>0.85843333333333327</v>
       </c>
     </row>
-    <row r="188" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="188" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J188" s="3">
         <v>41105</v>
       </c>
@@ -10565,7 +6500,7 @@
         <v>0.84326666666666661</v>
       </c>
     </row>
-    <row r="189" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="189" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J189" s="3">
         <v>41136</v>
       </c>
@@ -10587,7 +6522,7 @@
         <v>0.81566666666666665</v>
       </c>
     </row>
-    <row r="190" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="190" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J190" s="3">
         <v>41167</v>
       </c>
@@ -10609,7 +6544,7 @@
         <v>0.79556666666666664</v>
       </c>
     </row>
-    <row r="191" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="191" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J191" s="3">
         <v>41197</v>
       </c>
@@ -10631,7 +6566,7 @@
         <v>0.78216666666666657</v>
       </c>
     </row>
-    <row r="192" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="192" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J192" s="3">
         <v>41228</v>
       </c>
@@ -10653,7 +6588,7 @@
         <v>0.7745333333333333</v>
       </c>
     </row>
-    <row r="193" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="193" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J193" s="3">
         <v>41258</v>
       </c>
@@ -10675,7 +6610,7 @@
         <v>0.76159999999999994</v>
       </c>
     </row>
-    <row r="194" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="194" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J194" s="3">
         <v>41289</v>
       </c>
@@ -10697,7 +6632,7 @@
         <v>0.75190000000000001</v>
       </c>
     </row>
-    <row r="195" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="195" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J195" s="3">
         <v>41320</v>
       </c>
@@ -10719,7 +6654,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="196" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="196" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J196" s="3">
         <v>41348</v>
       </c>
@@ -10741,7 +6676,7 @@
         <v>0.74833333333333318</v>
       </c>
     </row>
-    <row r="197" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="197" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J197" s="3">
         <v>41379</v>
       </c>
@@ -10763,7 +6698,7 @@
         <v>0.73223333333333329</v>
       </c>
     </row>
-    <row r="198" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="198" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J198" s="3">
         <v>41409</v>
       </c>
@@ -10785,7 +6720,7 @@
         <v>0.70120000000000005</v>
       </c>
     </row>
-    <row r="199" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="199" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J199" s="3">
         <v>41440</v>
       </c>
@@ -10807,7 +6742,7 @@
         <v>0.67303333333333326</v>
       </c>
     </row>
-    <row r="200" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="200" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J200" s="3">
         <v>41470</v>
       </c>
@@ -10829,7 +6764,7 @@
         <v>0.65116666666666667</v>
       </c>
     </row>
-    <row r="201" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="201" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J201" s="3">
         <v>41501</v>
       </c>
@@ -10851,7 +6786,7 @@
         <v>0.65176666666666672</v>
       </c>
     </row>
-    <row r="202" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="202" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J202" s="3">
         <v>41532</v>
       </c>
@@ -10873,7 +6808,7 @@
         <v>0.65236666666666665</v>
       </c>
     </row>
-    <row r="203" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="203" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J203" s="3">
         <v>41562</v>
       </c>
@@ -10895,7 +6830,7 @@
         <v>0.66580000000000006</v>
       </c>
     </row>
-    <row r="204" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="204" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J204" s="3">
         <v>41593</v>
       </c>
@@ -10917,7 +6852,7 @@
         <v>0.66080000000000005</v>
       </c>
     </row>
-    <row r="205" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="205" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J205" s="3">
         <v>41623</v>
       </c>
@@ -10939,7 +6874,7 @@
         <v>0.66299999999999992</v>
       </c>
     </row>
-    <row r="206" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="206" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J206" s="3">
         <v>41654</v>
       </c>
@@ -10961,7 +6896,7 @@
         <v>0.66286666666666672</v>
       </c>
     </row>
-    <row r="207" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="207" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J207" s="3">
         <v>41685</v>
       </c>
@@ -10983,7 +6918,7 @@
         <v>0.67526666666666679</v>
       </c>
     </row>
-    <row r="208" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="208" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J208" s="3">
         <v>41713</v>
       </c>
@@ -11005,7 +6940,7 @@
         <v>0.68093333333333339</v>
       </c>
     </row>
-    <row r="209" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="209" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J209" s="3">
         <v>41744</v>
       </c>
@@ -11027,7 +6962,7 @@
         <v>0.69096666666666662</v>
       </c>
     </row>
-    <row r="210" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="210" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J210" s="3">
         <v>41774</v>
       </c>
@@ -11049,7 +6984,7 @@
         <v>0.69866666666666666</v>
       </c>
     </row>
-    <row r="211" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="211" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J211" s="3">
         <v>41805</v>
       </c>
@@ -11071,7 +7006,7 @@
         <v>0.71286666666666676</v>
       </c>
     </row>
-    <row r="212" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="212" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J212" s="3">
         <v>41835</v>
       </c>
@@ -11093,7 +7028,7 @@
         <v>0.72203333333333342</v>
       </c>
     </row>
-    <row r="213" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="213" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J213" s="3">
         <v>41866</v>
       </c>
@@ -11115,7 +7050,7 @@
         <v>0.72319999999999995</v>
       </c>
     </row>
-    <row r="214" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="214" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J214" s="3">
         <v>41897</v>
       </c>
@@ -11137,7 +7072,7 @@
         <v>0.72066666666666668</v>
       </c>
     </row>
-    <row r="215" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="215" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J215" s="3">
         <v>41927</v>
       </c>
@@ -11159,7 +7094,7 @@
         <v>0.71196666666666664</v>
       </c>
     </row>
-    <row r="216" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="216" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J216" s="3">
         <v>41958</v>
       </c>
@@ -11181,7 +7116,7 @@
         <v>0.71090000000000009</v>
       </c>
     </row>
-    <row r="217" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="217" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J217" s="3">
         <v>41988</v>
       </c>
@@ -11203,7 +7138,7 @@
         <v>0.7131333333333334</v>
       </c>
     </row>
-    <row r="218" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="218" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J218" s="3">
         <v>42019</v>
       </c>
@@ -11225,7 +7160,7 @@
         <v>0.71183333333333332</v>
       </c>
     </row>
-    <row r="219" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="219" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J219" s="3">
         <v>42050</v>
       </c>
@@ -11247,7 +7182,7 @@
         <v>0.70679999999999998</v>
       </c>
     </row>
-    <row r="220" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="220" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J220" s="3">
         <v>42078</v>
       </c>
@@ -11269,7 +7204,7 @@
         <v>0.6973666666666668</v>
       </c>
     </row>
-    <row r="221" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="221" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J221" s="3">
         <v>42109</v>
       </c>
@@ -11291,7 +7226,7 @@
         <v>0.70456666666666667</v>
       </c>
     </row>
-    <row r="222" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="222" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J222" s="3">
         <v>42139</v>
       </c>
@@ -11313,7 +7248,7 @@
         <v>0.7170333333333333</v>
       </c>
     </row>
-    <row r="223" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="223" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J223" s="3">
         <v>42170</v>
       </c>
@@ -11335,7 +7270,7 @@
         <v>0.72949999999999993</v>
       </c>
     </row>
-    <row r="224" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="224" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J224" s="3">
         <v>42200</v>
       </c>
@@ -11357,7 +7292,7 @@
         <v>0.73019999999999996</v>
       </c>
     </row>
-    <row r="225" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="225" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J225" s="3">
         <v>42231</v>
       </c>
@@ -11379,7 +7314,7 @@
         <v>0.72063333333333335</v>
       </c>
     </row>
-    <row r="226" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="226" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J226" s="3">
         <v>42262</v>
       </c>
@@ -11401,7 +7336,7 @@
         <v>0.70653333333333335</v>
       </c>
     </row>
-    <row r="227" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="227" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J227" s="3">
         <v>42292</v>
       </c>
@@ -11423,7 +7358,7 @@
         <v>0.69676666666666665</v>
       </c>
     </row>
-    <row r="228" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="228" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J228" s="3">
         <v>42323</v>
       </c>
@@ -11445,7 +7380,7 @@
         <v>0.70320000000000016</v>
       </c>
     </row>
-    <row r="229" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="229" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J229" s="3">
         <v>42353</v>
       </c>
@@ -11467,7 +7402,7 @@
         <v>0.71733333333333338</v>
       </c>
     </row>
-    <row r="230" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="230" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J230" s="3">
         <v>42384</v>
       </c>
@@ -11489,7 +7424,7 @@
         <v>0.72746666666666682</v>
       </c>
     </row>
-    <row r="231" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="231" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J231" s="3">
         <v>42415</v>
       </c>
@@ -11511,7 +7446,7 @@
         <v>0.72756666666666669</v>
       </c>
     </row>
-    <row r="232" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="232" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J232" s="3">
         <v>42444</v>
       </c>
@@ -11533,7 +7468,7 @@
         <v>0.7155999999999999</v>
       </c>
     </row>
-    <row r="233" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="233" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J233" s="3">
         <v>42475</v>
       </c>
@@ -11555,7 +7490,7 @@
         <v>0.70506666666666673</v>
       </c>
     </row>
-    <row r="234" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="234" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J234" s="3">
         <v>42505</v>
       </c>
@@ -11577,7 +7512,7 @@
         <v>0.68940000000000001</v>
       </c>
     </row>
-    <row r="235" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="235" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J235" s="3">
         <v>42536</v>
       </c>
@@ -11599,7 +7534,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="236" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="236" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J236" s="3">
         <v>42566</v>
       </c>
@@ -11621,7 +7556,7 @@
         <v>0.66846666666666665</v>
       </c>
     </row>
-    <row r="237" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="237" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J237" s="3">
         <v>42597</v>
       </c>
@@ -11643,7 +7578,7 @@
         <v>0.65986666666666671</v>
       </c>
     </row>
-    <row r="238" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="238" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J238" s="3">
         <v>42628</v>
       </c>
@@ -11665,7 +7600,7 @@
         <v>0.66299999999999992</v>
       </c>
     </row>
-    <row r="239" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="239" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J239" s="3">
         <v>42658</v>
       </c>
@@ -11687,7 +7622,7 @@
         <v>0.67079999999999995</v>
       </c>
     </row>
-    <row r="240" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="240" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J240" s="3">
         <v>42689</v>
       </c>
@@ -11709,7 +7644,7 @@
         <v>0.67899999999999994</v>
       </c>
     </row>
-    <row r="241" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="241" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J241" s="3">
         <v>42719</v>
       </c>
@@ -11731,7 +7666,7 @@
         <v>0.68133333333333335</v>
       </c>
     </row>
-    <row r="242" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="242" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J242" s="3">
         <v>42750</v>
       </c>
@@ -11753,7 +7688,7 @@
         <v>0.68143333333333322</v>
       </c>
     </row>
-    <row r="243" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="243" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J243" s="3">
         <v>42781</v>
       </c>
@@ -11775,7 +7710,7 @@
         <v>0.67989999999999995</v>
       </c>
     </row>
-    <row r="244" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="244" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J244" s="3">
         <v>42809</v>
       </c>
@@ -11797,7 +7732,7 @@
         <v>0.67083333333333339</v>
       </c>
     </row>
-    <row r="245" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="245" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J245" s="3">
         <v>42840</v>
       </c>
@@ -11819,7 +7754,7 @@
         <v>0.66299999999999992</v>
       </c>
     </row>
-    <row r="246" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="246" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J246" s="3">
         <v>42870</v>
       </c>
@@ -11841,7 +7776,7 @@
         <v>0.66146666666666665</v>
       </c>
     </row>
-    <row r="247" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="247" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J247" s="3">
         <v>42901</v>
       </c>
@@ -11863,7 +7798,7 @@
         <v>0.65723333333333334</v>
       </c>
     </row>
-    <row r="248" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="248" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J248" s="3">
         <v>42931</v>
       </c>
@@ -11885,7 +7820,7 @@
         <v>0.64873333333333327</v>
       </c>
     </row>
-    <row r="249" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="249" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J249" s="3">
         <v>42962</v>
       </c>
@@ -11907,7 +7842,7 @@
         <v>0.6371</v>
       </c>
     </row>
-    <row r="250" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="250" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J250" s="3">
         <v>42993</v>
       </c>
@@ -11929,7 +7864,7 @@
         <v>0.63586666666666669</v>
       </c>
     </row>
-    <row r="251" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="251" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J251" s="3">
         <v>43023</v>
       </c>
@@ -11951,7 +7886,7 @@
         <v>0.64396666666666669</v>
       </c>
     </row>
-    <row r="252" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="252" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J252" s="3">
         <v>43054</v>
       </c>
@@ -11973,7 +7908,7 @@
         <v>0.65303333333333324</v>
       </c>
     </row>
-    <row r="253" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="253" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J253" s="3">
         <v>43084</v>
       </c>
@@ -11995,7 +7930,7 @@
         <v>0.65293333333333325</v>
       </c>
     </row>
-    <row r="254" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="254" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J254" s="3">
         <v>43115</v>
       </c>
@@ -12017,7 +7952,7 @@
         <v>0.63503333333333334</v>
       </c>
     </row>
-    <row r="255" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="255" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J255" s="3">
         <v>43146</v>
       </c>
@@ -12039,7 +7974,7 @@
         <v>0.61459999999999992</v>
       </c>
     </row>
-    <row r="256" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="256" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J256" s="3">
         <v>43174</v>
       </c>
@@ -12061,7 +7996,7 @@
         <v>0.6042333333333334</v>
       </c>
     </row>
-    <row r="257" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="257" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J257" s="3">
         <v>43205</v>
       </c>
@@ -12083,7 +8018,7 @@
         <v>0.61750000000000005</v>
       </c>
     </row>
-    <row r="258" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="258" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J258" s="3">
         <v>43235</v>
       </c>
@@ -12105,7 +8040,7 @@
         <v>0.63723333333333321</v>
       </c>
     </row>
-    <row r="259" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="259" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J259" s="3">
         <v>43266</v>
       </c>
@@ -12127,7 +8062,7 @@
         <v>0.65426666666666666</v>
       </c>
     </row>
-    <row r="260" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="260" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J260" s="3">
         <v>43296</v>
       </c>
@@ -12149,7 +8084,7 @@
         <v>0.66180000000000005</v>
       </c>
     </row>
-    <row r="261" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="261" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J261" s="3">
         <v>43327</v>
       </c>
@@ -12171,7 +8106,7 @@
         <v>0.66333333333333333</v>
       </c>
     </row>
-    <row r="262" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="262" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J262" s="3">
         <v>43358</v>
       </c>
@@ -12193,7 +8128,7 @@
         <v>0.67196666666666671</v>
       </c>
     </row>
-    <row r="263" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="263" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J263" s="3">
         <v>43388</v>
       </c>
@@ -12215,7 +8150,7 @@
         <v>0.68573333333333331</v>
       </c>
     </row>
-    <row r="264" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="264" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J264" s="3">
         <v>43419</v>
       </c>
@@ -12237,7 +8172,7 @@
         <v>0.7044666666666668</v>
       </c>
     </row>
-    <row r="265" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="265" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J265" s="3">
         <v>43449</v>
       </c>
@@ -12259,7 +8194,7 @@
         <v>0.71743333333333348</v>
       </c>
     </row>
-    <row r="266" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="266" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J266" s="3">
         <v>43480</v>
       </c>
@@ -12281,7 +8216,7 @@
         <v>0.71939999999999993</v>
       </c>
     </row>
-    <row r="267" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="267" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J267" s="3">
         <v>43511</v>
       </c>
@@ -12303,7 +8238,7 @@
         <v>0.71709999999999996</v>
       </c>
     </row>
-    <row r="268" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="268" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J268" s="3">
         <v>43539</v>
       </c>
@@ -12325,7 +8260,7 @@
         <v>0.71633333333333338</v>
       </c>
     </row>
-    <row r="269" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="269" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J269" s="3">
         <v>43570</v>
       </c>
@@ -12347,7 +8282,7 @@
         <v>0.71530000000000005</v>
       </c>
     </row>
-    <row r="270" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="270" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J270" s="3">
         <v>43600</v>
       </c>
@@ -12369,7 +8304,7 @@
         <v>0.71056666666666668</v>
       </c>
     </row>
-    <row r="271" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="271" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J271" s="3">
         <v>43631</v>
       </c>
@@ -12391,7 +8326,7 @@
         <v>0.70220000000000005</v>
       </c>
     </row>
-    <row r="272" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="272" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J272" s="3">
         <v>43661</v>
       </c>
@@ -12413,7 +8348,7 @@
         <v>0.70036666666666658</v>
       </c>
     </row>
-    <row r="273" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="273" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J273" s="3">
         <v>43692</v>
       </c>
@@ -12435,7 +8370,7 @@
         <v>0.70226666666666659</v>
       </c>
     </row>
-    <row r="274" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="274" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J274" s="3">
         <v>43723</v>
       </c>
@@ -12457,7 +8392,7 @@
         <v>0.70413333333333339</v>
       </c>
     </row>
-    <row r="275" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="275" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J275" s="3">
         <v>43753</v>
       </c>
@@ -12479,7 +8414,7 @@
         <v>0.69503333333333339</v>
       </c>
     </row>
-    <row r="276" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="276" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J276" s="3">
         <v>43784</v>
       </c>
@@ -12501,7 +8436,7 @@
         <v>0.69055</v>
       </c>
     </row>
-    <row r="277" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="277" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J277" s="3">
         <v>43814</v>
       </c>
@@ -12523,7 +8458,7 @@
         <v>0.67849999999999999</v>
       </c>
     </row>
-    <row r="278" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="278" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J278" s="3">
         <v>43845</v>
       </c>
@@ -12535,7 +8470,7 @@
         <v>1.9066666666666665</v>
       </c>
     </row>
-    <row r="279" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="279" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J279" s="3">
         <v>43876</v>
       </c>
@@ -12547,7 +8482,7 @@
         <v>1.8133333333333335</v>
       </c>
     </row>
-    <row r="280" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="280" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J280" s="3">
         <v>43905</v>
       </c>
@@ -12559,7 +8494,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="281" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="281" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J281" s="3">
         <v>43936</v>
       </c>
@@ -12571,7 +8506,7 @@
         <v>1.7066666666666668</v>
       </c>
     </row>
-    <row r="282" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="282" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J282" s="3">
         <v>43966</v>
       </c>
@@ -12583,7 +8518,7 @@
         <v>1.7166666666666668</v>
       </c>
     </row>
-    <row r="283" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="283" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J283" s="3">
         <v>43997</v>
       </c>
@@ -12595,7 +8530,7 @@
         <v>1.8999999999999997</v>
       </c>
     </row>
-    <row r="284" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="284" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J284" s="3">
         <v>44027</v>
       </c>
@@ -12607,7 +8542,7 @@
         <v>1.9966666666666668</v>
       </c>
     </row>
-    <row r="285" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="285" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J285" s="3">
         <v>44058</v>
       </c>
@@ -12619,7 +8554,7 @@
         <v>2.2033333333333331</v>
       </c>
     </row>
-    <row r="286" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="286" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J286" s="3">
         <v>44089</v>
       </c>
@@ -12631,7 +8566,7 @@
         <v>2.3066666666666666</v>
       </c>
     </row>
-    <row r="287" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="287" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J287" s="3">
         <v>44119</v>
       </c>
@@ -12643,7 +8578,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="288" spans="10:17" x14ac:dyDescent="0.2">
+    <row r="288" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J288" s="3">
         <v>44150</v>
       </c>
@@ -12655,7 +8590,7 @@
         <v>2.6366666666666663</v>
       </c>
     </row>
-    <row r="289" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="289" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J289" s="3">
         <v>44180</v>
       </c>
@@ -12667,7 +8602,7 @@
         <v>3.5499999999999994</v>
       </c>
     </row>
-    <row r="290" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="290" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J290" s="3">
         <v>44211</v>
       </c>
@@ -12679,7 +8614,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="291" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="291" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J291" s="3">
         <v>44242</v>
       </c>
@@ -12691,7 +8626,7 @@
         <v>3.543333333333333</v>
       </c>
     </row>
-    <row r="292" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="292" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J292" s="3">
         <v>44270</v>
       </c>
@@ -12703,7 +8638,7 @@
         <v>2.7300000000000004</v>
       </c>
     </row>
-    <row r="293" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="293" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J293" s="3">
         <v>44301</v>
       </c>
@@ -12715,7 +8650,7 @@
         <v>2.9433333333333334</v>
       </c>
     </row>
-    <row r="294" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="294" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J294" s="3">
         <v>44331</v>
       </c>
@@ -12727,7 +8662,7 @@
         <v>3.3366666666666664</v>
       </c>
     </row>
-    <row r="295" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="295" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J295" s="3">
         <v>44362</v>
       </c>
@@ -12739,7 +8674,7 @@
         <v>3.7233333333333332</v>
       </c>
     </row>
-    <row r="296" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="296" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J296" s="3">
         <v>44392</v>
       </c>
@@ -12751,7 +8686,7 @@
         <v>4.3566666666666665</v>
       </c>
     </row>
-    <row r="297" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="297" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J297" s="3">
         <v>44423</v>
       </c>
@@ -12763,7 +8698,7 @@
         <v>4.9133333333333331</v>
       </c>
     </row>
-    <row r="298" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="298" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J298" s="3">
         <v>44454</v>
       </c>
@@ -12775,7 +8710,7 @@
         <v>5.2399999999999993</v>
       </c>
     </row>
-    <row r="299" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="299" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J299" s="3">
         <v>44484</v>
       </c>
@@ -12787,7 +8722,7 @@
         <v>4.7733333333333325</v>
       </c>
     </row>
-    <row r="300" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="300" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J300" s="3">
         <v>44515</v>
       </c>
@@ -12799,7 +8734,7 @@
         <v>4.4049999999999994</v>
       </c>
     </row>
-    <row r="301" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="301" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J301" s="3">
         <v>44545</v>
       </c>
@@ -12813,6 +8748,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/nz-gas-working.xlsx
+++ b/data/nz-gas-working.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\phd\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/Documents/GitHub/phd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C5BE19-5869-44A6-82F6-9C2E8920DC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1B9381-9BAA-2349-963B-9B15340F5247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="1605" windowWidth="20580" windowHeight="11610" xr2:uid="{17CC2F23-C17B-D54F-8C34-01615971F1F2}"/>
+    <workbookView xWindow="4980" yWindow="2440" windowWidth="20580" windowHeight="11620" xr2:uid="{17CC2F23-C17B-D54F-8C34-01615971F1F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -59,17 +59,20 @@
   <si>
     <t>NZBTU-USD</t>
   </si>
+  <si>
+    <t>NBP-Q</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="mmm\ yy"/>
-    <numFmt numFmtId="166" formatCode="mmm\-yyyy"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="168" formatCode="mmm\ yyyy"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="mmm\ yy"/>
+    <numFmt numFmtId="165" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="167" formatCode="mmm\ yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -117,22 +120,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -451,15 +454,15 @@
   <dimension ref="A1:Q301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -478,6 +481,9 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>36220</v>
       </c>
@@ -511,6 +517,9 @@
         <f>VLOOKUP(A2,J:L,3)</f>
         <v>1.9033333333333333</v>
       </c>
+      <c r="G2">
+        <v>9.8258823529411696</v>
+      </c>
       <c r="J2" s="3">
         <v>35445</v>
       </c>
@@ -524,7 +533,7 @@
         <v>0.53910000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>36312</v>
       </c>
@@ -547,6 +556,9 @@
         <f t="shared" ref="F3:F66" si="3">VLOOKUP(A3,J:L,3)</f>
         <v>2.2899999999999996</v>
       </c>
+      <c r="G3">
+        <v>9.5106896551724098</v>
+      </c>
       <c r="J3" s="3">
         <v>35476</v>
       </c>
@@ -564,7 +576,7 @@
         <v>0.53939999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>36404</v>
       </c>
@@ -587,6 +599,9 @@
         <f t="shared" si="3"/>
         <v>2.6933333333333334</v>
       </c>
+      <c r="G4">
+        <v>9.7671428571428507</v>
+      </c>
       <c r="J4" s="3">
         <v>35504</v>
       </c>
@@ -604,7 +619,7 @@
         <v>0.5421999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>36495</v>
       </c>
@@ -627,6 +642,9 @@
         <f t="shared" si="3"/>
         <v>2.3833333333333333</v>
       </c>
+      <c r="G5">
+        <v>10.796315789473599</v>
+      </c>
       <c r="J5" s="3">
         <v>35535</v>
       </c>
@@ -644,7 +662,7 @@
         <v>0.54239999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>36586</v>
       </c>
@@ -667,6 +685,9 @@
         <f t="shared" si="3"/>
         <v>2.83</v>
       </c>
+      <c r="G6">
+        <v>14.691451612903199</v>
+      </c>
       <c r="J6" s="3">
         <v>35565</v>
       </c>
@@ -684,7 +705,7 @@
         <v>0.53739999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>36678</v>
       </c>
@@ -707,6 +728,9 @@
         <f t="shared" si="3"/>
         <v>3.956666666666667</v>
       </c>
+      <c r="G7">
+        <v>17.860967741935401</v>
+      </c>
       <c r="J7" s="3">
         <v>35596</v>
       </c>
@@ -724,7 +748,7 @@
         <v>0.52883333333333338</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>36770</v>
       </c>
@@ -747,6 +771,9 @@
         <f t="shared" si="3"/>
         <v>4.836666666666666</v>
       </c>
+      <c r="G8">
+        <v>18.395624999999999</v>
+      </c>
       <c r="J8" s="3">
         <v>35626</v>
       </c>
@@ -764,7 +791,7 @@
         <v>0.52539999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>36861</v>
       </c>
@@ -787,6 +814,9 @@
         <f t="shared" si="3"/>
         <v>7.53</v>
       </c>
+      <c r="G9">
+        <v>24.029375000000002</v>
+      </c>
       <c r="J9" s="3">
         <v>35657</v>
       </c>
@@ -804,7 +834,7 @@
         <v>0.52143333333333342</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>36951</v>
       </c>
@@ -827,6 +857,9 @@
         <f t="shared" si="3"/>
         <v>5.3433333333333337</v>
       </c>
+      <c r="G10">
+        <v>23.7574603174603</v>
+      </c>
       <c r="J10" s="3">
         <v>35688</v>
       </c>
@@ -844,7 +877,7 @@
         <v>0.51653333333333329</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>37043</v>
       </c>
@@ -867,6 +900,9 @@
         <f t="shared" si="3"/>
         <v>3.6733333333333333</v>
       </c>
+      <c r="G11">
+        <v>21.114126984126901</v>
+      </c>
       <c r="J11" s="3">
         <v>35718</v>
       </c>
@@ -884,7 +920,7 @@
         <v>0.51190000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>37135</v>
       </c>
@@ -907,6 +943,9 @@
         <f t="shared" si="3"/>
         <v>2.54</v>
       </c>
+      <c r="G12">
+        <v>19.9769841269841</v>
+      </c>
       <c r="J12" s="3">
         <v>35749</v>
       </c>
@@ -924,7 +963,7 @@
         <v>0.51156666666666661</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>37226</v>
       </c>
@@ -947,6 +986,9 @@
         <f t="shared" si="3"/>
         <v>2.3199999999999998</v>
       </c>
+      <c r="G13">
+        <v>23.3129687499999</v>
+      </c>
       <c r="J13" s="3">
         <v>35779</v>
       </c>
@@ -964,7 +1006,7 @@
         <v>0.50456666666666672</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>37316</v>
       </c>
@@ -987,6 +1029,9 @@
         <f t="shared" si="3"/>
         <v>2.9266666666666663</v>
       </c>
+      <c r="G14">
+        <v>18.317999999999898</v>
+      </c>
       <c r="J14" s="3">
         <v>35810</v>
       </c>
@@ -1004,7 +1049,7 @@
         <v>0.49866666666666665</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>37408</v>
       </c>
@@ -1027,6 +1072,9 @@
         <f t="shared" si="3"/>
         <v>3.25</v>
       </c>
+      <c r="G15">
+        <v>14.41609375</v>
+      </c>
       <c r="J15" s="3">
         <v>35841</v>
       </c>
@@ -1044,7 +1092,7 @@
         <v>0.49303333333333327</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>37500</v>
       </c>
@@ -1067,6 +1115,9 @@
         <f t="shared" si="3"/>
         <v>3.59</v>
       </c>
+      <c r="G16">
+        <v>15.3569841269841</v>
+      </c>
       <c r="J16" s="3">
         <v>35869</v>
       </c>
@@ -1084,7 +1135,7 @@
         <v>0.48630000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>37591</v>
       </c>
@@ -1107,6 +1158,9 @@
         <f t="shared" si="3"/>
         <v>4.7366666666666672</v>
       </c>
+      <c r="G17">
+        <v>20.501384615384602</v>
+      </c>
       <c r="J17" s="3">
         <v>35900</v>
       </c>
@@ -1124,7 +1178,7 @@
         <v>0.47933333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>37681</v>
       </c>
@@ -1147,6 +1201,9 @@
         <f t="shared" si="3"/>
         <v>6.3</v>
       </c>
+      <c r="G18">
+        <v>19.195999999999898</v>
+      </c>
       <c r="J18" s="3">
         <v>35930</v>
       </c>
@@ -1164,7 +1221,7 @@
         <v>0.46733333333333338</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>37773</v>
       </c>
@@ -1187,6 +1244,9 @@
         <f t="shared" si="3"/>
         <v>5.5533333333333337</v>
       </c>
+      <c r="G19">
+        <v>18.3215</v>
+      </c>
       <c r="J19" s="3">
         <v>35961</v>
       </c>
@@ -1204,7 +1264,7 @@
         <v>0.45906666666666668</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>37865</v>
       </c>
@@ -1227,6 +1287,9 @@
         <f t="shared" si="3"/>
         <v>4.7466666666666661</v>
       </c>
+      <c r="G20">
+        <v>18.187619047618998</v>
+      </c>
       <c r="J20" s="3">
         <v>35991</v>
       </c>
@@ -1244,7 +1307,7 @@
         <v>0.44203333333333333</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>37956</v>
       </c>
@@ -1267,6 +1330,9 @@
         <f t="shared" si="3"/>
         <v>5.5799999999999992</v>
       </c>
+      <c r="G21">
+        <v>26.439692307692301</v>
+      </c>
       <c r="J21" s="3">
         <v>36022</v>
       </c>
@@ -1284,7 +1350,7 @@
         <v>0.4221333333333333</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>38047</v>
       </c>
@@ -1307,6 +1373,9 @@
         <f t="shared" si="3"/>
         <v>5.4899999999999993</v>
       </c>
+      <c r="G22">
+        <v>24.553492063492001</v>
+      </c>
       <c r="J22" s="3">
         <v>36053</v>
       </c>
@@ -1324,7 +1393,7 @@
         <v>0.40626666666666672</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>38139</v>
       </c>
@@ -1347,6 +1416,9 @@
         <f t="shared" si="3"/>
         <v>6.1766666666666667</v>
       </c>
+      <c r="G23">
+        <v>22.734999999999999</v>
+      </c>
       <c r="J23" s="3">
         <v>36083</v>
       </c>
@@ -1364,7 +1436,7 @@
         <v>0.4094666666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>38231</v>
       </c>
@@ -1387,6 +1459,9 @@
         <f t="shared" si="3"/>
         <v>5.6366666666666667</v>
       </c>
+      <c r="G24">
+        <v>25.691969696969601</v>
+      </c>
       <c r="J24" s="3">
         <v>36114</v>
       </c>
@@ -1404,7 +1479,7 @@
         <v>0.4239</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>38322</v>
       </c>
@@ -1427,6 +1502,9 @@
         <f t="shared" si="3"/>
         <v>6.3</v>
       </c>
+      <c r="G25">
+        <v>31.4098360655737</v>
+      </c>
       <c r="J25" s="3">
         <v>36144</v>
       </c>
@@ -1444,7 +1522,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>38412</v>
       </c>
@@ -1467,6 +1545,9 @@
         <f t="shared" si="3"/>
         <v>6.753333333333333</v>
       </c>
+      <c r="G26">
+        <v>35.359322033898302</v>
+      </c>
       <c r="J26" s="3">
         <v>36175</v>
       </c>
@@ -1484,7 +1565,7 @@
         <v>0.43316666666666664</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>38504</v>
       </c>
@@ -1507,6 +1588,9 @@
         <f t="shared" si="3"/>
         <v>7.0933333333333328</v>
       </c>
+      <c r="G27">
+        <v>33.494999999999997</v>
+      </c>
       <c r="J27" s="3">
         <v>36206</v>
       </c>
@@ -1528,7 +1612,7 @@
         <v>0.42053333333333337</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>38596</v>
       </c>
@@ -1551,6 +1635,9 @@
         <f t="shared" si="3"/>
         <v>11.566666666666668</v>
       </c>
+      <c r="G28">
+        <v>37.650606060606002</v>
+      </c>
       <c r="J28" s="3">
         <v>36234</v>
       </c>
@@ -1572,7 +1659,7 @@
         <v>0.41619999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>38687</v>
       </c>
@@ -1595,6 +1682,9 @@
         <f t="shared" si="3"/>
         <v>10.68</v>
       </c>
+      <c r="G29">
+        <v>60.055238095238003</v>
+      </c>
       <c r="J29" s="3">
         <v>36265</v>
       </c>
@@ -1616,7 +1706,7 @@
         <v>0.41450000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>38777</v>
       </c>
@@ -1639,6 +1729,9 @@
         <f t="shared" si="3"/>
         <v>7.1966666666666663</v>
       </c>
+      <c r="G30">
+        <v>55.355396825396802</v>
+      </c>
       <c r="J30" s="3">
         <v>36295</v>
       </c>
@@ -1660,7 +1753,7 @@
         <v>0.41520000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>38869</v>
       </c>
@@ -1683,6 +1776,9 @@
         <f t="shared" si="3"/>
         <v>6.2100000000000009</v>
       </c>
+      <c r="G31">
+        <v>41.950483870967702</v>
+      </c>
       <c r="J31" s="3">
         <v>36326</v>
       </c>
@@ -1704,7 +1800,7 @@
         <v>0.41803333333333331</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>38961</v>
       </c>
@@ -1727,6 +1823,9 @@
         <f t="shared" si="3"/>
         <v>5.9633333333333338</v>
       </c>
+      <c r="G32">
+        <v>41.051538461538399</v>
+      </c>
       <c r="J32" s="3">
         <v>36356</v>
       </c>
@@ -1748,7 +1847,7 @@
         <v>0.41969999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>39052</v>
       </c>
@@ -1771,6 +1870,9 @@
         <f t="shared" si="3"/>
         <v>6.8966666666666674</v>
       </c>
+      <c r="G33">
+        <v>44.025714285714201</v>
+      </c>
       <c r="J33" s="3">
         <v>36387</v>
       </c>
@@ -1792,7 +1894,7 @@
         <v>0.42149999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>39142</v>
       </c>
@@ -1815,6 +1917,9 @@
         <f t="shared" si="3"/>
         <v>7.57</v>
       </c>
+      <c r="G34">
+        <v>24.883333333333301</v>
+      </c>
       <c r="J34" s="3">
         <v>36418</v>
       </c>
@@ -1836,7 +1941,7 @@
         <v>0.41673333333333334</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>39234</v>
       </c>
@@ -1859,6 +1964,9 @@
         <f t="shared" si="3"/>
         <v>7.0699999999999994</v>
       </c>
+      <c r="G35">
+        <v>23.821384615384599</v>
+      </c>
       <c r="J35" s="3">
         <v>36448</v>
       </c>
@@ -1880,7 +1988,7 @@
         <v>0.41536666666666666</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>39326</v>
       </c>
@@ -1903,6 +2011,9 @@
         <f t="shared" si="3"/>
         <v>6.3466666666666667</v>
       </c>
+      <c r="G36">
+        <v>29.478769230769199</v>
+      </c>
       <c r="J36" s="3">
         <v>36479</v>
       </c>
@@ -1924,7 +2035,7 @@
         <v>0.41886666666666672</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>39417</v>
       </c>
@@ -1947,6 +2058,9 @@
         <f t="shared" si="3"/>
         <v>7.4000000000000012</v>
       </c>
+      <c r="G37">
+        <v>43.632153846153798</v>
+      </c>
       <c r="J37" s="3">
         <v>36509</v>
       </c>
@@ -1968,7 +2082,7 @@
         <v>0.41970000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>39508</v>
       </c>
@@ -1991,6 +2105,9 @@
         <f t="shared" si="3"/>
         <v>9.3766666666666669</v>
       </c>
+      <c r="G38">
+        <v>57.5907812499999</v>
+      </c>
       <c r="J38" s="3">
         <v>36540</v>
       </c>
@@ -2012,7 +2129,7 @@
         <v>0.42506666666666665</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>39600</v>
       </c>
@@ -2035,6 +2152,9 @@
         <f t="shared" si="3"/>
         <v>11.683333333333332</v>
       </c>
+      <c r="G39">
+        <v>62.744374999999899</v>
+      </c>
       <c r="J39" s="3">
         <v>36571</v>
       </c>
@@ -2056,7 +2176,7 @@
         <v>0.43109999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39692</v>
       </c>
@@ -2079,6 +2199,9 @@
         <f t="shared" si="3"/>
         <v>7.5566666666666675</v>
       </c>
+      <c r="G40">
+        <v>63.908461538461502</v>
+      </c>
       <c r="J40" s="3">
         <v>36600</v>
       </c>
@@ -2100,7 +2223,7 @@
         <v>0.44486666666666669</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39783</v>
       </c>
@@ -2123,6 +2246,9 @@
         <f t="shared" si="3"/>
         <v>5.913333333333334</v>
       </c>
+      <c r="G41">
+        <v>63.538333333333298</v>
+      </c>
       <c r="J41" s="3">
         <v>36631</v>
       </c>
@@ -2144,7 +2270,7 @@
         <v>0.46416666666666667</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>39873</v>
       </c>
@@ -2167,6 +2293,9 @@
         <f t="shared" si="3"/>
         <v>3.9933333333333336</v>
       </c>
+      <c r="G42">
+        <v>38.9299999999999</v>
+      </c>
       <c r="J42" s="3">
         <v>36661</v>
       </c>
@@ -2188,7 +2317,7 @@
         <v>0.47713333333333335</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>39965</v>
       </c>
@@ -2211,6 +2340,9 @@
         <f t="shared" si="3"/>
         <v>3.67</v>
       </c>
+      <c r="G43">
+        <v>30.123125000000002</v>
+      </c>
       <c r="J43" s="3">
         <v>36692</v>
       </c>
@@ -2232,7 +2364,7 @@
         <v>0.47836666666666666</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>40057</v>
       </c>
@@ -2255,6 +2387,9 @@
         <f t="shared" si="3"/>
         <v>3.3800000000000003</v>
       </c>
+      <c r="G44">
+        <v>26.784029850746201</v>
+      </c>
       <c r="J44" s="3">
         <v>36722</v>
       </c>
@@ -2276,7 +2411,7 @@
         <v>0.47176666666666667</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>40148</v>
       </c>
@@ -2299,6 +2434,9 @@
         <f t="shared" si="3"/>
         <v>4.9466666666666663</v>
       </c>
+      <c r="G45">
+        <v>31.911428571428502</v>
+      </c>
       <c r="J45" s="3">
         <v>36753</v>
       </c>
@@ -2320,7 +2458,7 @@
         <v>0.47143333333333332</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>40238</v>
       </c>
@@ -2343,6 +2481,9 @@
         <f t="shared" si="3"/>
         <v>4.5466666666666669</v>
       </c>
+      <c r="G46">
+        <v>36.481774193548297</v>
+      </c>
       <c r="J46" s="3">
         <v>36784</v>
       </c>
@@ -2364,7 +2505,7 @@
         <v>0.48243333333333333</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>40330</v>
       </c>
@@ -2387,6 +2528,9 @@
         <f t="shared" si="3"/>
         <v>4.5233333333333334</v>
       </c>
+      <c r="G47">
+        <v>38.841076923076898</v>
+      </c>
       <c r="J47" s="3">
         <v>36814</v>
       </c>
@@ -2408,7 +2552,7 @@
         <v>0.49563333333333331</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>40422</v>
       </c>
@@ -2431,6 +2575,9 @@
         <f t="shared" si="3"/>
         <v>3.8800000000000003</v>
       </c>
+      <c r="G48">
+        <v>42.1191176470588</v>
+      </c>
       <c r="J48" s="3">
         <v>36845</v>
       </c>
@@ -2452,7 +2599,7 @@
         <v>0.51573333333333338</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>40513</v>
       </c>
@@ -2475,6 +2622,9 @@
         <f t="shared" si="3"/>
         <v>4.1499999999999995</v>
       </c>
+      <c r="G49">
+        <v>47.904615384615397</v>
+      </c>
       <c r="J49" s="3">
         <v>36875</v>
       </c>
@@ -2496,7 +2646,7 @@
         <v>0.53460000000000008</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>40603</v>
       </c>
@@ -2519,6 +2669,9 @@
         <f t="shared" si="3"/>
         <v>4.1000000000000005</v>
       </c>
+      <c r="G50">
+        <v>57.787301587301499</v>
+      </c>
       <c r="J50" s="3">
         <v>36906</v>
       </c>
@@ -2540,7 +2693,7 @@
         <v>0.54946666666666666</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>40695</v>
       </c>
@@ -2563,6 +2716,9 @@
         <f t="shared" si="3"/>
         <v>4.4233333333333329</v>
       </c>
+      <c r="G51">
+        <v>58.159531250000001</v>
+      </c>
       <c r="J51" s="3">
         <v>36937</v>
       </c>
@@ -2584,7 +2740,7 @@
         <v>0.55279999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>40787</v>
       </c>
@@ -2607,6 +2763,9 @@
         <f t="shared" si="3"/>
         <v>3.8433333333333333</v>
       </c>
+      <c r="G52">
+        <v>57.948805970149202</v>
+      </c>
       <c r="J52" s="3">
         <v>36965</v>
       </c>
@@ -2628,7 +2787,7 @@
         <v>0.56040000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>40878</v>
       </c>
@@ -2651,6 +2810,9 @@
         <f t="shared" si="3"/>
         <v>3.0266666666666668</v>
       </c>
+      <c r="G53">
+        <v>59.474843749999998</v>
+      </c>
       <c r="J53" s="3">
         <v>36996</v>
       </c>
@@ -2672,7 +2834,7 @@
         <v>0.56933333333333336</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>40969</v>
       </c>
@@ -2695,6 +2857,9 @@
         <f t="shared" si="3"/>
         <v>2.21</v>
       </c>
+      <c r="G54">
+        <v>58.127812499999898</v>
+      </c>
       <c r="J54" s="3">
         <v>37026</v>
       </c>
@@ -2716,7 +2881,7 @@
         <v>0.5810333333333334</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>41061</v>
       </c>
@@ -2739,6 +2904,9 @@
         <f t="shared" si="3"/>
         <v>2.6133333333333337</v>
       </c>
+      <c r="G55">
+        <v>56.873692307692302</v>
+      </c>
       <c r="J55" s="3">
         <v>37057</v>
       </c>
@@ -2760,7 +2928,7 @@
         <v>0.58306666666666673</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>41153</v>
       </c>
@@ -2783,6 +2951,9 @@
         <f t="shared" si="3"/>
         <v>3.0033333333333334</v>
       </c>
+      <c r="G56">
+        <v>57.870937499999997</v>
+      </c>
       <c r="J56" s="3">
         <v>37087</v>
       </c>
@@ -2804,7 +2975,7 @@
         <v>0.58403333333333329</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>41244</v>
       </c>
@@ -2827,6 +2998,9 @@
         <f t="shared" si="3"/>
         <v>3.4033333333333338</v>
       </c>
+      <c r="G57">
+        <v>63.578333333333298</v>
+      </c>
       <c r="J57" s="3">
         <v>37118</v>
       </c>
@@ -2848,7 +3022,7 @@
         <v>0.58903333333333341</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>41334</v>
       </c>
@@ -2871,6 +3045,9 @@
         <f t="shared" si="3"/>
         <v>3.77</v>
       </c>
+      <c r="G58">
+        <v>67.345468749999895</v>
+      </c>
       <c r="J58" s="3">
         <v>37149</v>
       </c>
@@ -2892,7 +3069,7 @@
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>41426</v>
       </c>
@@ -2915,6 +3092,9 @@
         <f t="shared" si="3"/>
         <v>3.83</v>
       </c>
+      <c r="G59">
+        <v>65.945303030302995</v>
+      </c>
       <c r="J59" s="3">
         <v>37179</v>
       </c>
@@ -2936,7 +3116,7 @@
         <v>0.62509999999999988</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>41518</v>
       </c>
@@ -2959,6 +3139,9 @@
         <f t="shared" si="3"/>
         <v>3.5766666666666667</v>
       </c>
+      <c r="G60">
+        <v>65.957343750000007</v>
+      </c>
       <c r="J60" s="3">
         <v>37210</v>
       </c>
@@ -2980,7 +3163,7 @@
         <v>0.64889999999999992</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>41609</v>
       </c>
@@ -3003,6 +3186,9 @@
         <f t="shared" si="3"/>
         <v>4.1966666666666663</v>
       </c>
+      <c r="G61">
+        <v>68.945373134328307</v>
+      </c>
       <c r="J61" s="3">
         <v>37240</v>
       </c>
@@ -3024,7 +3210,7 @@
         <v>0.67020000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>41699</v>
       </c>
@@ -3047,6 +3233,9 @@
         <f t="shared" si="3"/>
         <v>5.1866666666666665</v>
       </c>
+      <c r="G62">
+        <v>56.8124242424242</v>
+      </c>
       <c r="J62" s="3">
         <v>37271</v>
       </c>
@@ -3068,7 +3257,7 @@
         <v>0.67513333333333325</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>41791</v>
       </c>
@@ -3091,6 +3280,9 @@
         <f t="shared" si="3"/>
         <v>4.4066666666666663</v>
       </c>
+      <c r="G63">
+        <v>47.315322580645102</v>
+      </c>
       <c r="J63" s="3">
         <v>37302</v>
       </c>
@@ -3112,7 +3304,7 @@
         <v>0.66496666666666659</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>41883</v>
       </c>
@@ -3135,6 +3327,9 @@
         <f t="shared" si="3"/>
         <v>3.8699999999999997</v>
       </c>
+      <c r="G64">
+        <v>47.043650793650698</v>
+      </c>
       <c r="J64" s="3">
         <v>37330</v>
       </c>
@@ -3156,7 +3351,7 @@
         <v>0.63963333333333339</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>41974</v>
       </c>
@@ -3179,6 +3374,9 @@
         <f t="shared" si="3"/>
         <v>3.53</v>
       </c>
+      <c r="G65">
+        <v>53.091343283581999</v>
+      </c>
       <c r="J65" s="3">
         <v>37361</v>
       </c>
@@ -3200,7 +3398,7 @@
         <v>0.62893333333333334</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>42064</v>
       </c>
@@ -3223,6 +3421,9 @@
         <f t="shared" si="3"/>
         <v>2.77</v>
       </c>
+      <c r="G66">
+        <v>45.614126984126898</v>
+      </c>
       <c r="J66" s="3">
         <v>37391</v>
       </c>
@@ -3244,7 +3445,7 @@
         <v>0.63049999999999995</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>42156</v>
       </c>
@@ -3267,6 +3468,9 @@
         <f t="shared" ref="F67:F92" si="9">VLOOKUP(A67,J:L,3)</f>
         <v>2.8233333333333328</v>
       </c>
+      <c r="G67">
+        <v>43.136984126984103</v>
+      </c>
       <c r="J67" s="3">
         <v>37422</v>
       </c>
@@ -3288,7 +3492,7 @@
         <v>0.64336666666666664</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>42248</v>
       </c>
@@ -3311,6 +3515,9 @@
         <f t="shared" si="9"/>
         <v>2.59</v>
       </c>
+      <c r="G68">
+        <v>41.7653731343283</v>
+      </c>
       <c r="J68" s="3">
         <v>37452</v>
       </c>
@@ -3332,7 +3539,7 @@
         <v>0.6532</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>42339</v>
       </c>
@@ -3355,6 +3562,9 @@
         <f t="shared" si="9"/>
         <v>2.0999999999999996</v>
       </c>
+      <c r="G69">
+        <v>39.48796875</v>
+      </c>
       <c r="J69" s="3">
         <v>37483</v>
       </c>
@@ -3376,7 +3586,7 @@
         <v>0.66516666666666679</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>42430</v>
       </c>
@@ -3399,6 +3609,9 @@
         <f t="shared" si="9"/>
         <v>1.88</v>
       </c>
+      <c r="G70">
+        <v>32.117213114754001</v>
+      </c>
       <c r="J70" s="3">
         <v>37514</v>
       </c>
@@ -3420,7 +3633,7 @@
         <v>0.68020000000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>42522</v>
       </c>
@@ -3443,6 +3656,9 @@
         <f t="shared" si="9"/>
         <v>2.4433333333333334</v>
       </c>
+      <c r="G71">
+        <v>32.359545454545398</v>
+      </c>
       <c r="J71" s="3">
         <v>37544</v>
       </c>
@@ -3464,7 +3680,7 @@
         <v>0.69866666666666666</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>42614</v>
       </c>
@@ -3487,6 +3703,9 @@
         <f t="shared" si="9"/>
         <v>2.93</v>
       </c>
+      <c r="G72">
+        <v>34.340298507462599</v>
+      </c>
       <c r="J72" s="3">
         <v>37575</v>
       </c>
@@ -3508,7 +3727,7 @@
         <v>0.7058333333333332</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>42705</v>
       </c>
@@ -3531,6 +3750,9 @@
         <f t="shared" si="9"/>
         <v>3.1466666666666665</v>
       </c>
+      <c r="G73">
+        <v>42.572968750000001</v>
+      </c>
       <c r="J73" s="3">
         <v>37605</v>
       </c>
@@ -3552,7 +3774,7 @@
         <v>0.71083333333333332</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>42795</v>
       </c>
@@ -3575,6 +3797,9 @@
         <f t="shared" si="9"/>
         <v>2.9433333333333334</v>
       </c>
+      <c r="G74">
+        <v>46.484769230769203</v>
+      </c>
       <c r="J74" s="3">
         <v>37636</v>
       </c>
@@ -3596,7 +3821,7 @@
         <v>0.71629999999999994</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>42887</v>
       </c>
@@ -3619,6 +3844,9 @@
         <f t="shared" si="9"/>
         <v>3.0366666666666666</v>
       </c>
+      <c r="G75">
+        <v>40.582812500000003</v>
+      </c>
       <c r="J75" s="3">
         <v>37667</v>
       </c>
@@ -3640,7 +3868,7 @@
         <v>0.7211333333333334</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>42979</v>
       </c>
@@ -3663,6 +3891,9 @@
         <f t="shared" si="9"/>
         <v>2.92</v>
       </c>
+      <c r="G76">
+        <v>43.568153846153798</v>
+      </c>
       <c r="J76" s="3">
         <v>37695</v>
       </c>
@@ -3684,7 +3915,7 @@
         <v>0.72273333333333334</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43070</v>
       </c>
@@ -3707,6 +3938,9 @@
         <f t="shared" si="9"/>
         <v>3.2333333333333329</v>
       </c>
+      <c r="G77">
+        <v>50.732656249999899</v>
+      </c>
       <c r="J77" s="3">
         <v>37726</v>
       </c>
@@ -3728,7 +3962,7 @@
         <v>0.71536666666666671</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43160</v>
       </c>
@@ -3751,6 +3985,9 @@
         <f t="shared" si="9"/>
         <v>2.72</v>
       </c>
+      <c r="G78">
+        <v>53.435322580645099</v>
+      </c>
       <c r="J78" s="3">
         <v>37756</v>
       </c>
@@ -3772,7 +4009,7 @@
         <v>0.70233333333333337</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43252</v>
       </c>
@@ -3795,6 +4032,9 @@
         <f t="shared" si="9"/>
         <v>2.8666666666666667</v>
       </c>
+      <c r="G79">
+        <v>55.870606060606001</v>
+      </c>
       <c r="J79" s="3">
         <v>37787</v>
       </c>
@@ -3816,7 +4056,7 @@
         <v>0.69430000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43344</v>
       </c>
@@ -3839,6 +4079,9 @@
         <f t="shared" si="9"/>
         <v>3.08</v>
       </c>
+      <c r="G80">
+        <v>62.536153846153802</v>
+      </c>
       <c r="J80" s="3">
         <v>37817</v>
       </c>
@@ -3860,7 +4103,7 @@
         <v>0.69130000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43435</v>
       </c>
@@ -3883,6 +4126,9 @@
         <f t="shared" si="9"/>
         <v>3.7466666666666661</v>
       </c>
+      <c r="G81">
+        <v>65.0293846153846</v>
+      </c>
       <c r="J81" s="3">
         <v>37848</v>
       </c>
@@ -3904,7 +4150,7 @@
         <v>0.69743333333333324</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43525</v>
       </c>
@@ -3927,6 +4173,9 @@
         <f t="shared" si="9"/>
         <v>2.7633333333333336</v>
       </c>
+      <c r="G82">
+        <v>43.569682539682503</v>
+      </c>
       <c r="J82" s="3">
         <v>37879</v>
       </c>
@@ -3948,7 +4197,7 @@
         <v>0.69573333333333343</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43617</v>
       </c>
@@ -3971,6 +4220,9 @@
         <f t="shared" si="9"/>
         <v>2.4700000000000002</v>
       </c>
+      <c r="G83">
+        <v>33.909999999999997</v>
+      </c>
       <c r="J83" s="3">
         <v>37909</v>
       </c>
@@ -3992,7 +4244,7 @@
         <v>0.6946</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43709</v>
       </c>
@@ -4015,6 +4267,9 @@
         <f t="shared" si="9"/>
         <v>2.37</v>
       </c>
+      <c r="G84">
+        <v>35.116250000000001</v>
+      </c>
       <c r="J84" s="3">
         <v>37940</v>
       </c>
@@ -4036,7 +4291,7 @@
         <v>0.69126666666666681</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43800</v>
       </c>
@@ -4059,6 +4314,9 @@
         <f t="shared" si="9"/>
         <v>2.2966666666666669</v>
       </c>
+      <c r="G85">
+        <v>39.191060606060503</v>
+      </c>
       <c r="J85" s="3">
         <v>37970</v>
       </c>
@@ -4080,7 +4338,7 @@
         <v>0.68566666666666676</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43891</v>
       </c>
@@ -4103,6 +4361,9 @@
         <f t="shared" si="9"/>
         <v>1.8133333333333335</v>
       </c>
+      <c r="G86">
+        <v>24.394545454545401</v>
+      </c>
       <c r="J86" s="3">
         <v>38001</v>
       </c>
@@ -4124,7 +4385,7 @@
         <v>0.66576666666666673</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43983</v>
       </c>
@@ -4147,6 +4408,9 @@
         <f t="shared" si="9"/>
         <v>1.7166666666666668</v>
       </c>
+      <c r="G87">
+        <v>17.556031746031699</v>
+      </c>
       <c r="J87" s="3">
         <v>38032</v>
       </c>
@@ -4168,7 +4432,7 @@
         <v>0.64329999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>44075</v>
       </c>
@@ -4191,6 +4455,9 @@
         <f t="shared" si="9"/>
         <v>2.2033333333333331</v>
       </c>
+      <c r="G88">
+        <v>23.882985074626799</v>
+      </c>
       <c r="J88" s="3">
         <v>38061</v>
       </c>
@@ -4212,7 +4479,7 @@
         <v>0.62939999999999996</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>44166</v>
       </c>
@@ -4235,6 +4502,9 @@
         <f t="shared" si="9"/>
         <v>2.6366666666666663</v>
       </c>
+      <c r="G89">
+        <v>36.814285714285703</v>
+      </c>
       <c r="J89" s="3">
         <v>38092</v>
       </c>
@@ -4256,7 +4526,7 @@
         <v>0.62359999999999993</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>44256</v>
       </c>
@@ -4279,6 +4549,9 @@
         <f t="shared" si="9"/>
         <v>3.543333333333333</v>
       </c>
+      <c r="G90">
+        <v>49.338936170212698</v>
+      </c>
       <c r="J90" s="3">
         <v>38122</v>
       </c>
@@ -4300,7 +4573,7 @@
         <v>0.62239999999999995</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>44348</v>
       </c>
@@ -4323,6 +4596,9 @@
         <f t="shared" si="9"/>
         <v>3.3366666666666664</v>
       </c>
+      <c r="G91">
+        <v>60.539615384615303</v>
+      </c>
       <c r="J91" s="3">
         <v>38153</v>
       </c>
@@ -4344,7 +4620,7 @@
         <v>0.62290000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>44440</v>
       </c>
@@ -4367,6 +4643,9 @@
         <f t="shared" si="9"/>
         <v>4.9133333333333331</v>
       </c>
+      <c r="G92">
+        <v>54.578461538461497</v>
+      </c>
       <c r="J92" s="3">
         <v>38183</v>
       </c>
@@ -4388,7 +4667,7 @@
         <v>0.63479999999999992</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J93" s="3">
         <v>38214</v>
       </c>
@@ -4410,7 +4689,7 @@
         <v>0.64933333333333332</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J94" s="3">
         <v>38245</v>
       </c>
@@ -4432,7 +4711,7 @@
         <v>0.66133333333333333</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J95" s="3">
         <v>38275</v>
       </c>
@@ -4454,7 +4733,7 @@
         <v>0.67369999999999985</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J96" s="3">
         <v>38306</v>
       </c>
@@ -4476,7 +4755,7 @@
         <v>0.68533333333333335</v>
       </c>
     </row>
-    <row r="97" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J97" s="3">
         <v>38336</v>
       </c>
@@ -4498,7 +4777,7 @@
         <v>0.69366666666666665</v>
       </c>
     </row>
-    <row r="98" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J98" s="3">
         <v>38367</v>
       </c>
@@ -4520,7 +4799,7 @@
         <v>0.69580000000000009</v>
       </c>
     </row>
-    <row r="99" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J99" s="3">
         <v>38398</v>
       </c>
@@ -4542,7 +4821,7 @@
         <v>0.70893333333333342</v>
       </c>
     </row>
-    <row r="100" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J100" s="3">
         <v>38426</v>
       </c>
@@ -4564,7 +4843,7 @@
         <v>0.7218</v>
       </c>
     </row>
-    <row r="101" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J101" s="3">
         <v>38457</v>
       </c>
@@ -4586,7 +4865,7 @@
         <v>0.74103333333333332</v>
       </c>
     </row>
-    <row r="102" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J102" s="3">
         <v>38487</v>
       </c>
@@ -4608,7 +4887,7 @@
         <v>0.75806666666666667</v>
       </c>
     </row>
-    <row r="103" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J103" s="3">
         <v>38518</v>
       </c>
@@ -4630,7 +4909,7 @@
         <v>0.75673333333333337</v>
       </c>
     </row>
-    <row r="104" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J104" s="3">
         <v>38548</v>
       </c>
@@ -4652,7 +4931,7 @@
         <v>0.74379999999999991</v>
       </c>
     </row>
-    <row r="105" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J105" s="3">
         <v>38579</v>
       </c>
@@ -4674,7 +4953,7 @@
         <v>0.73539999999999994</v>
       </c>
     </row>
-    <row r="106" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J106" s="3">
         <v>38610</v>
       </c>
@@ -4696,7 +4975,7 @@
         <v>0.74670000000000003</v>
       </c>
     </row>
-    <row r="107" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J107" s="3">
         <v>38640</v>
       </c>
@@ -4718,7 +4997,7 @@
         <v>0.76386666666666658</v>
       </c>
     </row>
-    <row r="108" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J108" s="3">
         <v>38671</v>
       </c>
@@ -4740,7 +5019,7 @@
         <v>0.76759999999999995</v>
       </c>
     </row>
-    <row r="109" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J109" s="3">
         <v>38701</v>
       </c>
@@ -4762,7 +5041,7 @@
         <v>0.77906666666666669</v>
       </c>
     </row>
-    <row r="110" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J110" s="3">
         <v>38732</v>
       </c>
@@ -4784,7 +5063,7 @@
         <v>0.79043333333333321</v>
       </c>
     </row>
-    <row r="111" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J111" s="3">
         <v>38763</v>
       </c>
@@ -4806,7 +5085,7 @@
         <v>0.79649999999999999</v>
       </c>
     </row>
-    <row r="112" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J112" s="3">
         <v>38791</v>
       </c>
@@ -4828,7 +5107,7 @@
         <v>0.78986666666666672</v>
       </c>
     </row>
-    <row r="113" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J113" s="3">
         <v>38822</v>
       </c>
@@ -4850,7 +5129,7 @@
         <v>0.77586666666666659</v>
       </c>
     </row>
-    <row r="114" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J114" s="3">
         <v>38852</v>
       </c>
@@ -4872,7 +5151,7 @@
         <v>0.76429999999999998</v>
       </c>
     </row>
-    <row r="115" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J115" s="3">
         <v>38883</v>
       </c>
@@ -4894,7 +5173,7 @@
         <v>0.74206666666666665</v>
       </c>
     </row>
-    <row r="116" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J116" s="3">
         <v>38913</v>
       </c>
@@ -4916,7 +5195,7 @@
         <v>0.71343333333333325</v>
       </c>
     </row>
-    <row r="117" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J117" s="3">
         <v>38944</v>
       </c>
@@ -4938,7 +5217,7 @@
         <v>0.66623333333333334</v>
       </c>
     </row>
-    <row r="118" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J118" s="3">
         <v>38975</v>
       </c>
@@ -4960,7 +5239,7 @@
         <v>0.61786666666666668</v>
       </c>
     </row>
-    <row r="119" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J119" s="3">
         <v>39005</v>
       </c>
@@ -4982,7 +5261,7 @@
         <v>0.57856666666666667</v>
       </c>
     </row>
-    <row r="120" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J120" s="3">
         <v>39036</v>
       </c>
@@ -5004,7 +5283,7 @@
         <v>0.55819999999999992</v>
       </c>
     </row>
-    <row r="121" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J121" s="3">
         <v>39066</v>
       </c>
@@ -5026,7 +5305,7 @@
         <v>0.54153333333333331</v>
       </c>
     </row>
-    <row r="122" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J122" s="3">
         <v>39097</v>
       </c>
@@ -5048,7 +5327,7 @@
         <v>0.53283333333333338</v>
       </c>
     </row>
-    <row r="123" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J123" s="3">
         <v>39128</v>
       </c>
@@ -5070,7 +5349,7 @@
         <v>0.53893333333333338</v>
       </c>
     </row>
-    <row r="124" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J124" s="3">
         <v>39156</v>
       </c>
@@ -5092,7 +5371,7 @@
         <v>0.56686666666666674</v>
       </c>
     </row>
-    <row r="125" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J125" s="3">
         <v>39187</v>
       </c>
@@ -5114,7 +5393,7 @@
         <v>0.60239999999999994</v>
       </c>
     </row>
-    <row r="126" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J126" s="3">
         <v>39217</v>
       </c>
@@ -5136,7 +5415,7 @@
         <v>0.62666666666666659</v>
       </c>
     </row>
-    <row r="127" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J127" s="3">
         <v>39248</v>
       </c>
@@ -5158,7 +5437,7 @@
         <v>0.65216666666666667</v>
       </c>
     </row>
-    <row r="128" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J128" s="3">
         <v>39278</v>
       </c>
@@ -5180,7 +5459,7 @@
         <v>0.6738333333333334</v>
       </c>
     </row>
-    <row r="129" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J129" s="3">
         <v>39309</v>
       </c>
@@ -5202,7 +5481,7 @@
         <v>0.70536666666666681</v>
       </c>
     </row>
-    <row r="130" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J130" s="3">
         <v>39340</v>
       </c>
@@ -5224,7 +5503,7 @@
         <v>0.72386666666666677</v>
       </c>
     </row>
-    <row r="131" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J131" s="3">
         <v>39370</v>
       </c>
@@ -5246,7 +5525,7 @@
         <v>0.72846666666666648</v>
       </c>
     </row>
-    <row r="132" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J132" s="3">
         <v>39401</v>
       </c>
@@ -5268,7 +5547,7 @@
         <v>0.72493333333333332</v>
       </c>
     </row>
-    <row r="133" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J133" s="3">
         <v>39431</v>
       </c>
@@ -5290,7 +5569,7 @@
         <v>0.71376666666666677</v>
       </c>
     </row>
-    <row r="134" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J134" s="3">
         <v>39462</v>
       </c>
@@ -5312,7 +5591,7 @@
         <v>0.70943333333333347</v>
       </c>
     </row>
-    <row r="135" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J135" s="3">
         <v>39493</v>
       </c>
@@ -5334,7 +5613,7 @@
         <v>0.70430000000000004</v>
       </c>
     </row>
-    <row r="136" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J136" s="3">
         <v>39522</v>
       </c>
@@ -5356,7 +5635,7 @@
         <v>0.70489999999999997</v>
       </c>
     </row>
-    <row r="137" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J137" s="3">
         <v>39553</v>
       </c>
@@ -5378,7 +5657,7 @@
         <v>0.70143333333333346</v>
       </c>
     </row>
-    <row r="138" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J138" s="3">
         <v>39583</v>
       </c>
@@ -5400,7 +5679,7 @@
         <v>0.70103333333333329</v>
       </c>
     </row>
-    <row r="139" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J139" s="3">
         <v>39614</v>
       </c>
@@ -5422,7 +5701,7 @@
         <v>0.70643333333333336</v>
       </c>
     </row>
-    <row r="140" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J140" s="3">
         <v>39644</v>
       </c>
@@ -5444,7 +5723,7 @@
         <v>0.7174666666666667</v>
       </c>
     </row>
-    <row r="141" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J141" s="3">
         <v>39675</v>
       </c>
@@ -5466,7 +5745,7 @@
         <v>0.7304666666666666</v>
       </c>
     </row>
-    <row r="142" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J142" s="3">
         <v>39706</v>
       </c>
@@ -5488,7 +5767,7 @@
         <v>0.7495666666666666</v>
       </c>
     </row>
-    <row r="143" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J143" s="3">
         <v>39736</v>
       </c>
@@ -5510,7 +5789,7 @@
         <v>0.75773333333333337</v>
       </c>
     </row>
-    <row r="144" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J144" s="3">
         <v>39767</v>
       </c>
@@ -5532,7 +5811,7 @@
         <v>0.76279999999999992</v>
       </c>
     </row>
-    <row r="145" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J145" s="3">
         <v>39797</v>
       </c>
@@ -5554,7 +5833,7 @@
         <v>0.75933333333333319</v>
       </c>
     </row>
-    <row r="146" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J146" s="3">
         <v>39828</v>
       </c>
@@ -5576,7 +5855,7 @@
         <v>0.75613333333333344</v>
       </c>
     </row>
-    <row r="147" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J147" s="3">
         <v>39859</v>
       </c>
@@ -5598,7 +5877,7 @@
         <v>0.7629999999999999</v>
       </c>
     </row>
-    <row r="148" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J148" s="3">
         <v>39887</v>
       </c>
@@ -5620,7 +5899,7 @@
         <v>0.77416666666666656</v>
       </c>
     </row>
-    <row r="149" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J149" s="3">
         <v>39918</v>
       </c>
@@ -5642,7 +5921,7 @@
         <v>0.79890000000000005</v>
       </c>
     </row>
-    <row r="150" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J150" s="3">
         <v>39948</v>
       </c>
@@ -5664,7 +5943,7 @@
         <v>0.81876666666666653</v>
       </c>
     </row>
-    <row r="151" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J151" s="3">
         <v>39979</v>
       </c>
@@ -5686,7 +5965,7 @@
         <v>0.83296666666666663</v>
       </c>
     </row>
-    <row r="152" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J152" s="3">
         <v>40009</v>
       </c>
@@ -5708,7 +5987,7 @@
         <v>0.83273333333333321</v>
       </c>
     </row>
-    <row r="153" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J153" s="3">
         <v>40040</v>
       </c>
@@ -5730,7 +6009,7 @@
         <v>0.81353333333333333</v>
       </c>
     </row>
-    <row r="154" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J154" s="3">
         <v>40071</v>
       </c>
@@ -5752,7 +6031,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="155" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J155" s="3">
         <v>40101</v>
       </c>
@@ -5774,7 +6053,7 @@
         <v>0.77680000000000005</v>
       </c>
     </row>
-    <row r="156" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J156" s="3">
         <v>40132</v>
       </c>
@@ -5796,7 +6075,7 @@
         <v>0.78106666666666669</v>
       </c>
     </row>
-    <row r="157" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J157" s="3">
         <v>40162</v>
       </c>
@@ -5818,7 +6097,7 @@
         <v>0.80156666666666665</v>
       </c>
     </row>
-    <row r="158" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J158" s="3">
         <v>40193</v>
       </c>
@@ -5840,7 +6119,7 @@
         <v>0.81859999999999999</v>
       </c>
     </row>
-    <row r="159" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J159" s="3">
         <v>40224</v>
       </c>
@@ -5862,7 +6141,7 @@
         <v>0.82469999999999999</v>
       </c>
     </row>
-    <row r="160" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J160" s="3">
         <v>40252</v>
       </c>
@@ -5884,7 +6163,7 @@
         <v>0.80533333333333335</v>
       </c>
     </row>
-    <row r="161" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J161" s="3">
         <v>40283</v>
       </c>
@@ -5906,7 +6185,7 @@
         <v>0.79176666666666673</v>
       </c>
     </row>
-    <row r="162" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J162" s="3">
         <v>40313</v>
       </c>
@@ -5928,7 +6207,7 @@
         <v>0.78483333333333327</v>
       </c>
     </row>
-    <row r="163" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J163" s="3">
         <v>40344</v>
       </c>
@@ -5950,7 +6229,7 @@
         <v>0.79603333333333337</v>
       </c>
     </row>
-    <row r="164" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J164" s="3">
         <v>40374</v>
       </c>
@@ -5972,7 +6251,7 @@
         <v>0.80846666666666678</v>
       </c>
     </row>
-    <row r="165" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J165" s="3">
         <v>40405</v>
       </c>
@@ -5994,7 +6273,7 @@
         <v>0.81566666666666665</v>
       </c>
     </row>
-    <row r="166" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J166" s="3">
         <v>40436</v>
       </c>
@@ -6016,7 +6295,7 @@
         <v>0.81879999999999997</v>
       </c>
     </row>
-    <row r="167" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J167" s="3">
         <v>40466</v>
       </c>
@@ -6038,7 +6317,7 @@
         <v>0.8236</v>
       </c>
     </row>
-    <row r="168" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J168" s="3">
         <v>40497</v>
       </c>
@@ -6060,7 +6339,7 @@
         <v>0.82950000000000002</v>
       </c>
     </row>
-    <row r="169" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J169" s="3">
         <v>40527</v>
       </c>
@@ -6082,7 +6361,7 @@
         <v>0.83606666666666662</v>
       </c>
     </row>
-    <row r="170" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J170" s="3">
         <v>40558</v>
       </c>
@@ -6104,7 +6383,7 @@
         <v>0.83473333333333333</v>
       </c>
     </row>
-    <row r="171" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J171" s="3">
         <v>40589</v>
       </c>
@@ -6126,7 +6405,7 @@
         <v>0.83800000000000008</v>
       </c>
     </row>
-    <row r="172" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J172" s="3">
         <v>40617</v>
       </c>
@@ -6148,7 +6427,7 @@
         <v>0.83389999999999997</v>
       </c>
     </row>
-    <row r="173" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J173" s="3">
         <v>40648</v>
       </c>
@@ -6170,7 +6449,7 @@
         <v>0.82156666666666667</v>
       </c>
     </row>
-    <row r="174" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J174" s="3">
         <v>40678</v>
       </c>
@@ -6192,7 +6471,7 @@
         <v>0.80193333333333339</v>
       </c>
     </row>
-    <row r="175" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J175" s="3">
         <v>40709</v>
       </c>
@@ -6214,7 +6493,7 @@
         <v>0.79046666666666665</v>
       </c>
     </row>
-    <row r="176" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J176" s="3">
         <v>40739</v>
       </c>
@@ -6236,7 +6515,7 @@
         <v>0.79769999999999996</v>
       </c>
     </row>
-    <row r="177" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J177" s="3">
         <v>40770</v>
       </c>
@@ -6258,7 +6537,7 @@
         <v>0.81320000000000003</v>
       </c>
     </row>
-    <row r="178" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J178" s="3">
         <v>40801</v>
       </c>
@@ -6280,7 +6559,7 @@
         <v>0.82463333333333333</v>
       </c>
     </row>
-    <row r="179" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J179" s="3">
         <v>40831</v>
       </c>
@@ -6302,7 +6581,7 @@
         <v>0.82806666666666662</v>
       </c>
     </row>
-    <row r="180" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J180" s="3">
         <v>40862</v>
       </c>
@@ -6324,7 +6603,7 @@
         <v>0.82583333333333331</v>
       </c>
     </row>
-    <row r="181" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J181" s="3">
         <v>40892</v>
       </c>
@@ -6346,7 +6625,7 @@
         <v>0.82656666666666678</v>
       </c>
     </row>
-    <row r="182" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J182" s="3">
         <v>40923</v>
       </c>
@@ -6368,7 +6647,7 @@
         <v>0.83619999999999994</v>
       </c>
     </row>
-    <row r="183" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J183" s="3">
         <v>40954</v>
       </c>
@@ -6390,7 +6669,7 @@
         <v>0.8474666666666667</v>
       </c>
     </row>
-    <row r="184" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J184" s="3">
         <v>40983</v>
       </c>
@@ -6412,7 +6691,7 @@
         <v>0.85820000000000007</v>
       </c>
     </row>
-    <row r="185" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J185" s="3">
         <v>41014</v>
       </c>
@@ -6434,7 +6713,7 @@
         <v>0.86166666666666669</v>
       </c>
     </row>
-    <row r="186" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J186" s="3">
         <v>41044</v>
       </c>
@@ -6456,7 +6735,7 @@
         <v>0.8642333333333333</v>
       </c>
     </row>
-    <row r="187" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J187" s="3">
         <v>41075</v>
       </c>
@@ -6478,7 +6757,7 @@
         <v>0.85843333333333327</v>
       </c>
     </row>
-    <row r="188" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J188" s="3">
         <v>41105</v>
       </c>
@@ -6500,7 +6779,7 @@
         <v>0.84326666666666661</v>
       </c>
     </row>
-    <row r="189" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J189" s="3">
         <v>41136</v>
       </c>
@@ -6522,7 +6801,7 @@
         <v>0.81566666666666665</v>
       </c>
     </row>
-    <row r="190" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J190" s="3">
         <v>41167</v>
       </c>
@@ -6544,7 +6823,7 @@
         <v>0.79556666666666664</v>
       </c>
     </row>
-    <row r="191" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J191" s="3">
         <v>41197</v>
       </c>
@@ -6566,7 +6845,7 @@
         <v>0.78216666666666657</v>
       </c>
     </row>
-    <row r="192" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J192" s="3">
         <v>41228</v>
       </c>
@@ -6588,7 +6867,7 @@
         <v>0.7745333333333333</v>
       </c>
     </row>
-    <row r="193" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J193" s="3">
         <v>41258</v>
       </c>
@@ -6610,7 +6889,7 @@
         <v>0.76159999999999994</v>
       </c>
     </row>
-    <row r="194" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J194" s="3">
         <v>41289</v>
       </c>
@@ -6632,7 +6911,7 @@
         <v>0.75190000000000001</v>
       </c>
     </row>
-    <row r="195" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J195" s="3">
         <v>41320</v>
       </c>
@@ -6654,7 +6933,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="196" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J196" s="3">
         <v>41348</v>
       </c>
@@ -6676,7 +6955,7 @@
         <v>0.74833333333333318</v>
       </c>
     </row>
-    <row r="197" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J197" s="3">
         <v>41379</v>
       </c>
@@ -6698,7 +6977,7 @@
         <v>0.73223333333333329</v>
       </c>
     </row>
-    <row r="198" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J198" s="3">
         <v>41409</v>
       </c>
@@ -6720,7 +6999,7 @@
         <v>0.70120000000000005</v>
       </c>
     </row>
-    <row r="199" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J199" s="3">
         <v>41440</v>
       </c>
@@ -6742,7 +7021,7 @@
         <v>0.67303333333333326</v>
       </c>
     </row>
-    <row r="200" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J200" s="3">
         <v>41470</v>
       </c>
@@ -6764,7 +7043,7 @@
         <v>0.65116666666666667</v>
       </c>
     </row>
-    <row r="201" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J201" s="3">
         <v>41501</v>
       </c>
@@ -6786,7 +7065,7 @@
         <v>0.65176666666666672</v>
       </c>
     </row>
-    <row r="202" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J202" s="3">
         <v>41532</v>
       </c>
@@ -6808,7 +7087,7 @@
         <v>0.65236666666666665</v>
       </c>
     </row>
-    <row r="203" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J203" s="3">
         <v>41562</v>
       </c>
@@ -6830,7 +7109,7 @@
         <v>0.66580000000000006</v>
       </c>
     </row>
-    <row r="204" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J204" s="3">
         <v>41593</v>
       </c>
@@ -6852,7 +7131,7 @@
         <v>0.66080000000000005</v>
       </c>
     </row>
-    <row r="205" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J205" s="3">
         <v>41623</v>
       </c>
@@ -6874,7 +7153,7 @@
         <v>0.66299999999999992</v>
       </c>
     </row>
-    <row r="206" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J206" s="3">
         <v>41654</v>
       </c>
@@ -6896,7 +7175,7 @@
         <v>0.66286666666666672</v>
       </c>
     </row>
-    <row r="207" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J207" s="3">
         <v>41685</v>
       </c>
@@ -6918,7 +7197,7 @@
         <v>0.67526666666666679</v>
       </c>
     </row>
-    <row r="208" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J208" s="3">
         <v>41713</v>
       </c>
@@ -6940,7 +7219,7 @@
         <v>0.68093333333333339</v>
       </c>
     </row>
-    <row r="209" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J209" s="3">
         <v>41744</v>
       </c>
@@ -6962,7 +7241,7 @@
         <v>0.69096666666666662</v>
       </c>
     </row>
-    <row r="210" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J210" s="3">
         <v>41774</v>
       </c>
@@ -6984,7 +7263,7 @@
         <v>0.69866666666666666</v>
       </c>
     </row>
-    <row r="211" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J211" s="3">
         <v>41805</v>
       </c>
@@ -7006,7 +7285,7 @@
         <v>0.71286666666666676</v>
       </c>
     </row>
-    <row r="212" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J212" s="3">
         <v>41835</v>
       </c>
@@ -7028,7 +7307,7 @@
         <v>0.72203333333333342</v>
       </c>
     </row>
-    <row r="213" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J213" s="3">
         <v>41866</v>
       </c>
@@ -7050,7 +7329,7 @@
         <v>0.72319999999999995</v>
       </c>
     </row>
-    <row r="214" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J214" s="3">
         <v>41897</v>
       </c>
@@ -7072,7 +7351,7 @@
         <v>0.72066666666666668</v>
       </c>
     </row>
-    <row r="215" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J215" s="3">
         <v>41927</v>
       </c>
@@ -7094,7 +7373,7 @@
         <v>0.71196666666666664</v>
       </c>
     </row>
-    <row r="216" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J216" s="3">
         <v>41958</v>
       </c>
@@ -7116,7 +7395,7 @@
         <v>0.71090000000000009</v>
       </c>
     </row>
-    <row r="217" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J217" s="3">
         <v>41988</v>
       </c>
@@ -7138,7 +7417,7 @@
         <v>0.7131333333333334</v>
       </c>
     </row>
-    <row r="218" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J218" s="3">
         <v>42019</v>
       </c>
@@ -7160,7 +7439,7 @@
         <v>0.71183333333333332</v>
       </c>
     </row>
-    <row r="219" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J219" s="3">
         <v>42050</v>
       </c>
@@ -7182,7 +7461,7 @@
         <v>0.70679999999999998</v>
       </c>
     </row>
-    <row r="220" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J220" s="3">
         <v>42078</v>
       </c>
@@ -7204,7 +7483,7 @@
         <v>0.6973666666666668</v>
       </c>
     </row>
-    <row r="221" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J221" s="3">
         <v>42109</v>
       </c>
@@ -7226,7 +7505,7 @@
         <v>0.70456666666666667</v>
       </c>
     </row>
-    <row r="222" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J222" s="3">
         <v>42139</v>
       </c>
@@ -7248,7 +7527,7 @@
         <v>0.7170333333333333</v>
       </c>
     </row>
-    <row r="223" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J223" s="3">
         <v>42170</v>
       </c>
@@ -7270,7 +7549,7 @@
         <v>0.72949999999999993</v>
       </c>
     </row>
-    <row r="224" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J224" s="3">
         <v>42200</v>
       </c>
@@ -7292,7 +7571,7 @@
         <v>0.73019999999999996</v>
       </c>
     </row>
-    <row r="225" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J225" s="3">
         <v>42231</v>
       </c>
@@ -7314,7 +7593,7 @@
         <v>0.72063333333333335</v>
       </c>
     </row>
-    <row r="226" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J226" s="3">
         <v>42262</v>
       </c>
@@ -7336,7 +7615,7 @@
         <v>0.70653333333333335</v>
       </c>
     </row>
-    <row r="227" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J227" s="3">
         <v>42292</v>
       </c>
@@ -7358,7 +7637,7 @@
         <v>0.69676666666666665</v>
       </c>
     </row>
-    <row r="228" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J228" s="3">
         <v>42323</v>
       </c>
@@ -7380,7 +7659,7 @@
         <v>0.70320000000000016</v>
       </c>
     </row>
-    <row r="229" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J229" s="3">
         <v>42353</v>
       </c>
@@ -7402,7 +7681,7 @@
         <v>0.71733333333333338</v>
       </c>
     </row>
-    <row r="230" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J230" s="3">
         <v>42384</v>
       </c>
@@ -7424,7 +7703,7 @@
         <v>0.72746666666666682</v>
       </c>
     </row>
-    <row r="231" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J231" s="3">
         <v>42415</v>
       </c>
@@ -7446,7 +7725,7 @@
         <v>0.72756666666666669</v>
       </c>
     </row>
-    <row r="232" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J232" s="3">
         <v>42444</v>
       </c>
@@ -7468,7 +7747,7 @@
         <v>0.7155999999999999</v>
       </c>
     </row>
-    <row r="233" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J233" s="3">
         <v>42475</v>
       </c>
@@ -7490,7 +7769,7 @@
         <v>0.70506666666666673</v>
       </c>
     </row>
-    <row r="234" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J234" s="3">
         <v>42505</v>
       </c>
@@ -7512,7 +7791,7 @@
         <v>0.68940000000000001</v>
       </c>
     </row>
-    <row r="235" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J235" s="3">
         <v>42536</v>
       </c>
@@ -7534,7 +7813,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="236" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J236" s="3">
         <v>42566</v>
       </c>
@@ -7556,7 +7835,7 @@
         <v>0.66846666666666665</v>
       </c>
     </row>
-    <row r="237" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J237" s="3">
         <v>42597</v>
       </c>
@@ -7578,7 +7857,7 @@
         <v>0.65986666666666671</v>
       </c>
     </row>
-    <row r="238" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J238" s="3">
         <v>42628</v>
       </c>
@@ -7600,7 +7879,7 @@
         <v>0.66299999999999992</v>
       </c>
     </row>
-    <row r="239" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J239" s="3">
         <v>42658</v>
       </c>
@@ -7622,7 +7901,7 @@
         <v>0.67079999999999995</v>
       </c>
     </row>
-    <row r="240" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J240" s="3">
         <v>42689</v>
       </c>
@@ -7644,7 +7923,7 @@
         <v>0.67899999999999994</v>
       </c>
     </row>
-    <row r="241" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="241" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J241" s="3">
         <v>42719</v>
       </c>
@@ -7666,7 +7945,7 @@
         <v>0.68133333333333335</v>
       </c>
     </row>
-    <row r="242" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J242" s="3">
         <v>42750</v>
       </c>
@@ -7688,7 +7967,7 @@
         <v>0.68143333333333322</v>
       </c>
     </row>
-    <row r="243" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J243" s="3">
         <v>42781</v>
       </c>
@@ -7710,7 +7989,7 @@
         <v>0.67989999999999995</v>
       </c>
     </row>
-    <row r="244" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J244" s="3">
         <v>42809</v>
       </c>
@@ -7732,7 +8011,7 @@
         <v>0.67083333333333339</v>
       </c>
     </row>
-    <row r="245" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="245" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J245" s="3">
         <v>42840</v>
       </c>
@@ -7754,7 +8033,7 @@
         <v>0.66299999999999992</v>
       </c>
     </row>
-    <row r="246" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="246" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J246" s="3">
         <v>42870</v>
       </c>
@@ -7776,7 +8055,7 @@
         <v>0.66146666666666665</v>
       </c>
     </row>
-    <row r="247" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="247" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J247" s="3">
         <v>42901</v>
       </c>
@@ -7798,7 +8077,7 @@
         <v>0.65723333333333334</v>
       </c>
     </row>
-    <row r="248" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J248" s="3">
         <v>42931</v>
       </c>
@@ -7820,7 +8099,7 @@
         <v>0.64873333333333327</v>
       </c>
     </row>
-    <row r="249" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J249" s="3">
         <v>42962</v>
       </c>
@@ -7842,7 +8121,7 @@
         <v>0.6371</v>
       </c>
     </row>
-    <row r="250" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="250" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J250" s="3">
         <v>42993</v>
       </c>
@@ -7864,7 +8143,7 @@
         <v>0.63586666666666669</v>
       </c>
     </row>
-    <row r="251" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J251" s="3">
         <v>43023</v>
       </c>
@@ -7886,7 +8165,7 @@
         <v>0.64396666666666669</v>
       </c>
     </row>
-    <row r="252" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J252" s="3">
         <v>43054</v>
       </c>
@@ -7908,7 +8187,7 @@
         <v>0.65303333333333324</v>
       </c>
     </row>
-    <row r="253" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J253" s="3">
         <v>43084</v>
       </c>
@@ -7930,7 +8209,7 @@
         <v>0.65293333333333325</v>
       </c>
     </row>
-    <row r="254" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J254" s="3">
         <v>43115</v>
       </c>
@@ -7952,7 +8231,7 @@
         <v>0.63503333333333334</v>
       </c>
     </row>
-    <row r="255" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J255" s="3">
         <v>43146</v>
       </c>
@@ -7974,7 +8253,7 @@
         <v>0.61459999999999992</v>
       </c>
     </row>
-    <row r="256" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J256" s="3">
         <v>43174</v>
       </c>
@@ -7996,7 +8275,7 @@
         <v>0.6042333333333334</v>
       </c>
     </row>
-    <row r="257" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J257" s="3">
         <v>43205</v>
       </c>
@@ -8018,7 +8297,7 @@
         <v>0.61750000000000005</v>
       </c>
     </row>
-    <row r="258" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J258" s="3">
         <v>43235</v>
       </c>
@@ -8040,7 +8319,7 @@
         <v>0.63723333333333321</v>
       </c>
     </row>
-    <row r="259" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J259" s="3">
         <v>43266</v>
       </c>
@@ -8062,7 +8341,7 @@
         <v>0.65426666666666666</v>
       </c>
     </row>
-    <row r="260" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J260" s="3">
         <v>43296</v>
       </c>
@@ -8084,7 +8363,7 @@
         <v>0.66180000000000005</v>
       </c>
     </row>
-    <row r="261" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="261" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J261" s="3">
         <v>43327</v>
       </c>
@@ -8106,7 +8385,7 @@
         <v>0.66333333333333333</v>
       </c>
     </row>
-    <row r="262" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J262" s="3">
         <v>43358</v>
       </c>
@@ -8128,7 +8407,7 @@
         <v>0.67196666666666671</v>
       </c>
     </row>
-    <row r="263" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J263" s="3">
         <v>43388</v>
       </c>
@@ -8150,7 +8429,7 @@
         <v>0.68573333333333331</v>
       </c>
     </row>
-    <row r="264" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="264" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J264" s="3">
         <v>43419</v>
       </c>
@@ -8172,7 +8451,7 @@
         <v>0.7044666666666668</v>
       </c>
     </row>
-    <row r="265" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="265" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J265" s="3">
         <v>43449</v>
       </c>
@@ -8194,7 +8473,7 @@
         <v>0.71743333333333348</v>
       </c>
     </row>
-    <row r="266" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J266" s="3">
         <v>43480</v>
       </c>
@@ -8216,7 +8495,7 @@
         <v>0.71939999999999993</v>
       </c>
     </row>
-    <row r="267" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J267" s="3">
         <v>43511</v>
       </c>
@@ -8238,7 +8517,7 @@
         <v>0.71709999999999996</v>
       </c>
     </row>
-    <row r="268" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J268" s="3">
         <v>43539</v>
       </c>
@@ -8260,7 +8539,7 @@
         <v>0.71633333333333338</v>
       </c>
     </row>
-    <row r="269" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J269" s="3">
         <v>43570</v>
       </c>
@@ -8282,7 +8561,7 @@
         <v>0.71530000000000005</v>
       </c>
     </row>
-    <row r="270" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J270" s="3">
         <v>43600</v>
       </c>
@@ -8304,7 +8583,7 @@
         <v>0.71056666666666668</v>
       </c>
     </row>
-    <row r="271" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J271" s="3">
         <v>43631</v>
       </c>
@@ -8326,7 +8605,7 @@
         <v>0.70220000000000005</v>
       </c>
     </row>
-    <row r="272" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J272" s="3">
         <v>43661</v>
       </c>
@@ -8348,7 +8627,7 @@
         <v>0.70036666666666658</v>
       </c>
     </row>
-    <row r="273" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J273" s="3">
         <v>43692</v>
       </c>
@@ -8370,7 +8649,7 @@
         <v>0.70226666666666659</v>
       </c>
     </row>
-    <row r="274" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="274" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J274" s="3">
         <v>43723</v>
       </c>
@@ -8392,7 +8671,7 @@
         <v>0.70413333333333339</v>
       </c>
     </row>
-    <row r="275" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="275" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J275" s="3">
         <v>43753</v>
       </c>
@@ -8414,7 +8693,7 @@
         <v>0.69503333333333339</v>
       </c>
     </row>
-    <row r="276" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="276" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J276" s="3">
         <v>43784</v>
       </c>
@@ -8436,7 +8715,7 @@
         <v>0.69055</v>
       </c>
     </row>
-    <row r="277" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="277" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J277" s="3">
         <v>43814</v>
       </c>
@@ -8458,7 +8737,7 @@
         <v>0.67849999999999999</v>
       </c>
     </row>
-    <row r="278" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="278" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J278" s="3">
         <v>43845</v>
       </c>
@@ -8470,7 +8749,7 @@
         <v>1.9066666666666665</v>
       </c>
     </row>
-    <row r="279" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="279" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J279" s="3">
         <v>43876</v>
       </c>
@@ -8482,7 +8761,7 @@
         <v>1.8133333333333335</v>
       </c>
     </row>
-    <row r="280" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="280" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J280" s="3">
         <v>43905</v>
       </c>
@@ -8494,7 +8773,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="281" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="281" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J281" s="3">
         <v>43936</v>
       </c>
@@ -8506,7 +8785,7 @@
         <v>1.7066666666666668</v>
       </c>
     </row>
-    <row r="282" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="282" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J282" s="3">
         <v>43966</v>
       </c>
@@ -8518,7 +8797,7 @@
         <v>1.7166666666666668</v>
       </c>
     </row>
-    <row r="283" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="283" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J283" s="3">
         <v>43997</v>
       </c>
@@ -8530,7 +8809,7 @@
         <v>1.8999999999999997</v>
       </c>
     </row>
-    <row r="284" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="284" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J284" s="3">
         <v>44027</v>
       </c>
@@ -8542,7 +8821,7 @@
         <v>1.9966666666666668</v>
       </c>
     </row>
-    <row r="285" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="285" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J285" s="3">
         <v>44058</v>
       </c>
@@ -8554,7 +8833,7 @@
         <v>2.2033333333333331</v>
       </c>
     </row>
-    <row r="286" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="286" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J286" s="3">
         <v>44089</v>
       </c>
@@ -8566,7 +8845,7 @@
         <v>2.3066666666666666</v>
       </c>
     </row>
-    <row r="287" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="287" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J287" s="3">
         <v>44119</v>
       </c>
@@ -8578,7 +8857,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="288" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="288" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J288" s="3">
         <v>44150</v>
       </c>
@@ -8590,7 +8869,7 @@
         <v>2.6366666666666663</v>
       </c>
     </row>
-    <row r="289" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J289" s="3">
         <v>44180</v>
       </c>
@@ -8602,7 +8881,7 @@
         <v>3.5499999999999994</v>
       </c>
     </row>
-    <row r="290" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J290" s="3">
         <v>44211</v>
       </c>
@@ -8614,7 +8893,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="291" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J291" s="3">
         <v>44242</v>
       </c>
@@ -8626,7 +8905,7 @@
         <v>3.543333333333333</v>
       </c>
     </row>
-    <row r="292" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J292" s="3">
         <v>44270</v>
       </c>
@@ -8638,7 +8917,7 @@
         <v>2.7300000000000004</v>
       </c>
     </row>
-    <row r="293" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J293" s="3">
         <v>44301</v>
       </c>
@@ -8650,7 +8929,7 @@
         <v>2.9433333333333334</v>
       </c>
     </row>
-    <row r="294" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J294" s="3">
         <v>44331</v>
       </c>
@@ -8662,7 +8941,7 @@
         <v>3.3366666666666664</v>
       </c>
     </row>
-    <row r="295" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J295" s="3">
         <v>44362</v>
       </c>
@@ -8674,7 +8953,7 @@
         <v>3.7233333333333332</v>
       </c>
     </row>
-    <row r="296" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J296" s="3">
         <v>44392</v>
       </c>
@@ -8686,7 +8965,7 @@
         <v>4.3566666666666665</v>
       </c>
     </row>
-    <row r="297" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J297" s="3">
         <v>44423</v>
       </c>
@@ -8698,7 +8977,7 @@
         <v>4.9133333333333331</v>
       </c>
     </row>
-    <row r="298" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J298" s="3">
         <v>44454</v>
       </c>
@@ -8710,7 +8989,7 @@
         <v>5.2399999999999993</v>
       </c>
     </row>
-    <row r="299" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J299" s="3">
         <v>44484</v>
       </c>
@@ -8722,7 +9001,7 @@
         <v>4.7733333333333325</v>
       </c>
     </row>
-    <row r="300" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J300" s="3">
         <v>44515</v>
       </c>
@@ -8734,7 +9013,7 @@
         <v>4.4049999999999994</v>
       </c>
     </row>
-    <row r="301" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J301" s="3">
         <v>44545</v>
       </c>
